--- a/Performance result.xlsx
+++ b/Performance result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19980" windowHeight="8295" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="19980" windowHeight="8295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARM-Average Blur" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="81">
   <si>
     <t>PID</t>
   </si>
@@ -159,10 +159,34 @@
     <t>R</t>
   </si>
   <si>
+    <t>Percobaan 1</t>
+  </si>
+  <si>
+    <t>Percobaan ke</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>405304K</t>
   </si>
   <si>
     <t>395452K</t>
+  </si>
+  <si>
+    <t>Percobaan 2</t>
+  </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>Percobaan 3</t>
+  </si>
+  <si>
+    <t>Percobaan 4</t>
+  </si>
+  <si>
+    <t>Percobaan 5</t>
   </si>
   <si>
     <t>394196K</t>
@@ -192,15 +216,6 @@
     <t>394680K</t>
   </si>
   <si>
-    <t>Percobaan 1</t>
-  </si>
-  <si>
-    <t>Percobaan ke</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>393880K</t>
   </si>
   <si>
@@ -208,21 +223,6 @@
   </si>
   <si>
     <t>393696K</t>
-  </si>
-  <si>
-    <t>Percobaan 2</t>
-  </si>
-  <si>
-    <t>Rata-rata</t>
-  </si>
-  <si>
-    <t>Percobaan 3</t>
-  </si>
-  <si>
-    <t>Percobaan 4</t>
-  </si>
-  <si>
-    <t>Percobaan 5</t>
   </si>
   <si>
     <t>395336K</t>
@@ -3236,7 +3236,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3274,10 +3274,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -3728,7 +3728,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="7"/>
       <c r="M15" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>30</v>
@@ -4071,7 +4071,7 @@
         <v>0.000377430555555556</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N21" s="14">
         <f>AVERAGE(N16:N20)</f>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4451,7 +4451,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4736,7 +4736,7 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5045,7 +5045,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5083,10 +5083,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5436,10 +5436,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>30</v>
@@ -5782,7 +5782,7 @@
         <v>0.000383449074074074</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" ref="N19:R19" si="2">AVERAGE(N14:N18)</f>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6197,7 +6197,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6482,7 +6482,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6806,7 +6806,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6844,10 +6844,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7127,10 +7127,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>30</v>
@@ -7473,7 +7473,7 @@
         <v>0.000336574074074074</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" ref="N17:R17" si="1">AVERAGE(N12:N16)</f>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -7853,7 +7853,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8103,7 +8103,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8443,10 +8443,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8455,82 +8455,54 @@
     <col min="2" max="2" width="5.125" customWidth="true"/>
     <col min="3" max="3" width="3.125" customWidth="true"/>
     <col min="4" max="4" width="2.25" customWidth="true"/>
+    <col min="13" max="13" width="13.125" customWidth="true"/>
+    <col min="14" max="18" width="11.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3">
-        <v>2484</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>399900</v>
-      </c>
-      <c r="F2" s="3">
-        <v>136996</v>
-      </c>
-      <c r="G2" s="3">
-        <v>56628</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>26.9</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.00257800925925926</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>39</v>
+      <c r="M2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8547,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>405300</v>
+        <v>399900</v>
       </c>
       <c r="F3" s="3">
         <v>136996</v>
@@ -8556,22 +8528,22 @@
         <v>56628</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>26.9</v>
       </c>
       <c r="K3" s="6">
-        <v>0.002621875</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>40</v>
+        <v>0.00257800925925926</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8606,13 +8578,13 @@
         <v>26.9</v>
       </c>
       <c r="K4" s="6">
-        <v>0.00265659722222222</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>16</v>
+        <v>0.002621875</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8647,13 +8619,13 @@
         <v>26.9</v>
       </c>
       <c r="K5" s="6">
-        <v>0.00269143518518519</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>20</v>
+        <v>0.00265659722222222</v>
+      </c>
+      <c r="M5" s="9">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -8682,22 +8654,22 @@
         <v>38</v>
       </c>
       <c r="I6" s="3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="J6" s="3">
         <v>26.9</v>
       </c>
       <c r="K6" s="6">
-        <v>0.00272604166666667</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.00269143518518519</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>2484</v>
       </c>
@@ -8723,13 +8695,19 @@
         <v>38</v>
       </c>
       <c r="I7" s="3">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J7" s="3">
         <v>26.9</v>
       </c>
       <c r="K7" s="6">
-        <v>0.00276087962962963</v>
+        <v>0.00272604166666667</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8764,80 +8742,126 @@
         <v>26.9</v>
       </c>
       <c r="K8" s="6">
+        <v>0.00276087962962963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>2484</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>405300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>136996</v>
+      </c>
+      <c r="G9" s="3">
+        <v>56628</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.00279560185185185</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>2484</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="M12" s="11">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f>AVERAGEIF($H$3:$H$9,"R",E$3:E$9)</f>
         <v>405300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="O12" s="3">
+        <f t="shared" ref="N12:R12" si="0">AVERAGEIF($H$3:$H$9,"R",F$3:F$9)</f>
         <v>136996</v>
       </c>
-      <c r="G12" s="3">
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
         <v>56628</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>26.9</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.0029494212962963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="Q12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="0"/>
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3">
         <v>2484</v>
       </c>
@@ -8860,19 +8884,42 @@
         <v>56628</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>26.9</v>
       </c>
       <c r="K13" s="6">
-        <v>0.00299872685185185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0.0029494212962963</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <f>AVERAGEIF($H$13:$H$17,"R",E$13:E$17)</f>
+        <v>405300</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" ref="N13:R13" si="1">AVERAGEIF($H$13:$H$17,"R",F$13:F$17)</f>
+        <v>136996</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="1"/>
+        <v>56628</v>
+      </c>
+      <c r="Q13" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3">
         <v>2484</v>
       </c>
@@ -8904,10 +8951,33 @@
         <v>26.9</v>
       </c>
       <c r="K14" s="6">
-        <v>0.00303344907407407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.00299872685185185</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ref="N14:R14" si="2">AVERAGEIF($H$21:$H$26,"R",E$21:E$26)</f>
+        <v>395448</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="2"/>
+        <v>128860</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>56696</v>
+      </c>
+      <c r="Q14" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>2484</v>
       </c>
@@ -8939,10 +9009,33 @@
         <v>26.9</v>
       </c>
       <c r="K15" s="6">
-        <v>0.00306828703703704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.00303344907407407</v>
+      </c>
+      <c r="M15" s="11">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:R15" si="3">AVERAGEIF($H$30:$H$51,"R",E$30:E$51)</f>
+        <v>394692</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>128400</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>56312</v>
+      </c>
+      <c r="Q15" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="3"/>
+        <v>99.1666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3">
         <v>2484</v>
       </c>
@@ -8974,77 +9067,128 @@
         <v>26.9</v>
       </c>
       <c r="K16" s="6">
+        <v>0.00306828703703704</v>
+      </c>
+      <c r="M16" s="11">
+        <v>5</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" ref="N16:R16" si="4">AVERAGEIF($H$55:$H$77,"R",E$55:E$77)</f>
+        <v>393572</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="4"/>
+        <v>127776</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>56252</v>
+      </c>
+      <c r="Q16" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>98.8526315789474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="3">
+        <v>2484</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>405300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>136996</v>
+      </c>
+      <c r="G17" s="3">
+        <v>56628</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="K17" s="6">
         <v>0.00310300925925926</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="M17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" ref="N17:R17" si="5">AVERAGE(N12:N16)</f>
+        <v>398862.4</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="5"/>
+        <v>131805.6</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="5"/>
+        <v>56503.2</v>
+      </c>
+      <c r="Q17" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="5"/>
+        <v>99.5938596491228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>3002</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>390048</v>
-      </c>
-      <c r="F20" s="3">
-        <v>128116</v>
-      </c>
-      <c r="G20" s="3">
-        <v>56004</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.00105324074074074</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9061,25 +9205,25 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>395448</v>
+        <v>390048</v>
       </c>
       <c r="F21" s="3">
-        <v>128860</v>
+        <v>128116</v>
       </c>
       <c r="G21" s="3">
-        <v>56696</v>
+        <v>56004</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="K21" s="6">
-        <v>0.00110474537037037</v>
+        <v>0.00105324074074074</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9114,7 +9258,7 @@
         <v>25.3</v>
       </c>
       <c r="K22" s="6">
-        <v>0.00113946759259259</v>
+        <v>0.00110474537037037</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -9143,13 +9287,13 @@
         <v>38</v>
       </c>
       <c r="I23" s="3">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>25.3</v>
       </c>
       <c r="K23" s="6">
-        <v>0.0011744212962963</v>
+        <v>0.00113946759259259</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -9178,13 +9322,13 @@
         <v>38</v>
       </c>
       <c r="I24" s="3">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="J24" s="3">
         <v>25.3</v>
       </c>
       <c r="K24" s="6">
-        <v>0.00120902777777778</v>
+        <v>0.0011744212962963</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -9210,86 +9354,91 @@
         <v>56696</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25" s="3">
-        <v>88</v>
+        <v>99.7</v>
       </c>
       <c r="J25" s="3">
         <v>25.3</v>
       </c>
       <c r="K25" s="6">
+        <v>0.00120902777777778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>3002</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>395448</v>
+      </c>
+      <c r="F26" s="3">
+        <v>128860</v>
+      </c>
+      <c r="G26" s="3">
+        <v>56696</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="3">
+        <v>88</v>
+      </c>
+      <c r="J26" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="K26" s="6">
         <v>0.00123969907407407</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>3726</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>389292</v>
-      </c>
-      <c r="F29" s="3">
-        <v>127056</v>
-      </c>
-      <c r="G29" s="3">
-        <v>55060</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>25</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0.000318287037037037</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -9376,25 +9525,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>394692</v>
+        <v>389292</v>
       </c>
       <c r="F32" s="3">
-        <v>128400</v>
+        <v>127056</v>
       </c>
       <c r="G32" s="3">
-        <v>56312</v>
+        <v>55060</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="3">
-        <v>98.3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="K32" s="6">
-        <v>0.000326851851851852</v>
+        <v>0.000318287037037037</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -9423,13 +9572,13 @@
         <v>38</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J33" s="3">
         <v>25.2</v>
       </c>
       <c r="K33" s="6">
-        <v>0.000333912037037037</v>
+        <v>0.000326851851851852</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -9458,13 +9607,13 @@
         <v>38</v>
       </c>
       <c r="I34" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J34" s="3">
         <v>25.2</v>
       </c>
       <c r="K34" s="6">
-        <v>0.000340740740740741</v>
+        <v>0.000333912037037037</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -9493,13 +9642,13 @@
         <v>38</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J35" s="3">
         <v>25.2</v>
       </c>
       <c r="K35" s="6">
-        <v>0.000347685185185185</v>
+        <v>0.000340740740740741</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -9528,13 +9677,13 @@
         <v>38</v>
       </c>
       <c r="I36" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J36" s="3">
         <v>25.2</v>
       </c>
       <c r="K36" s="6">
-        <v>0.000354513888888889</v>
+        <v>0.000347685185185185</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -9563,13 +9712,13 @@
         <v>38</v>
       </c>
       <c r="I37" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J37" s="3">
         <v>25.2</v>
       </c>
       <c r="K37" s="6">
-        <v>0.000361458333333333</v>
+        <v>0.000354513888888889</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -9598,13 +9747,13 @@
         <v>38</v>
       </c>
       <c r="I38" s="3">
-        <v>98.4</v>
+        <v>100</v>
       </c>
       <c r="J38" s="3">
         <v>25.2</v>
       </c>
       <c r="K38" s="6">
-        <v>0.000368402777777778</v>
+        <v>0.000361458333333333</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -9633,13 +9782,13 @@
         <v>38</v>
       </c>
       <c r="I39" s="3">
-        <v>100</v>
+        <v>98.4</v>
       </c>
       <c r="J39" s="3">
         <v>25.2</v>
       </c>
       <c r="K39" s="6">
-        <v>0.000375347222222222</v>
+        <v>0.000368402777777778</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -9668,13 +9817,13 @@
         <v>38</v>
       </c>
       <c r="I40" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J40" s="3">
         <v>25.2</v>
       </c>
       <c r="K40" s="6">
-        <v>0.000382175925925926</v>
+        <v>0.000375347222222222</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -9703,13 +9852,13 @@
         <v>38</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J41" s="3">
         <v>25.2</v>
       </c>
       <c r="K41" s="6">
-        <v>0.00038912037037037</v>
+        <v>0.000382175925925926</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -9744,7 +9893,7 @@
         <v>25.2</v>
       </c>
       <c r="K42" s="6">
-        <v>0.000396064814814815</v>
+        <v>0.00038912037037037</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -9773,13 +9922,13 @@
         <v>38</v>
       </c>
       <c r="I43" s="3">
-        <v>98.4</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>25.2</v>
       </c>
       <c r="K43" s="6">
-        <v>0.000403009259259259</v>
+        <v>0.000396064814814815</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -9808,13 +9957,13 @@
         <v>38</v>
       </c>
       <c r="I44" s="3">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="J44" s="3">
         <v>25.2</v>
       </c>
       <c r="K44" s="6">
-        <v>0.000409837962962963</v>
+        <v>0.000403009259259259</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -9843,13 +9992,13 @@
         <v>38</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J45" s="3">
         <v>25.2</v>
       </c>
       <c r="K45" s="6">
-        <v>0.000416782407407407</v>
+        <v>0.000409837962962963</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9884,7 +10033,7 @@
         <v>25.2</v>
       </c>
       <c r="K46" s="6">
-        <v>0.000423726851851852</v>
+        <v>0.000416782407407407</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9913,13 +10062,13 @@
         <v>38</v>
       </c>
       <c r="I47" s="3">
-        <v>98.4</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>25.2</v>
       </c>
       <c r="K47" s="6">
-        <v>0.000430671296296296</v>
+        <v>0.000423726851851852</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9948,13 +10097,13 @@
         <v>38</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>98.4</v>
       </c>
       <c r="J48" s="3">
         <v>25.2</v>
       </c>
       <c r="K48" s="6">
-        <v>0.000437615740740741</v>
+        <v>0.000430671296296296</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9983,13 +10132,13 @@
         <v>38</v>
       </c>
       <c r="I49" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>25.2</v>
       </c>
       <c r="K49" s="6">
-        <v>0.000444444444444444</v>
+        <v>0.000437615740740741</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -10015,30 +10164,52 @@
         <v>56312</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="J50" s="3">
         <v>25.2</v>
       </c>
       <c r="K50" s="6">
+        <v>0.000444444444444444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="3">
+        <v>3726</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="3">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>394692</v>
+      </c>
+      <c r="F51" s="3">
+        <v>128400</v>
+      </c>
+      <c r="G51" s="3">
+        <v>56312</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="K51" s="6">
         <v>0.000449421296296296</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="4"/>
@@ -10054,73 +10225,53 @@
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3">
-        <v>3809</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="3">
-        <v>20</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>388172</v>
-      </c>
-      <c r="F54" s="3">
-        <v>126520</v>
-      </c>
-      <c r="G54" s="3">
-        <v>55092</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>24.9</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0.00317349537037037</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -10172,25 +10323,25 @@
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>393572</v>
+        <v>388172</v>
       </c>
       <c r="F56" s="3">
-        <v>127776</v>
+        <v>126520</v>
       </c>
       <c r="G56" s="3">
-        <v>56252</v>
+        <v>55092</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I56" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="K56" s="6">
-        <v>0.00318344907407407</v>
+        <v>0.00317349537037037</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -10219,13 +10370,13 @@
         <v>38</v>
       </c>
       <c r="I57" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>25.1</v>
       </c>
       <c r="K57" s="6">
-        <v>0.00319027777777778</v>
+        <v>0.00318344907407407</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -10260,7 +10411,7 @@
         <v>25.1</v>
       </c>
       <c r="K58" s="6">
-        <v>0.00319710648148148</v>
+        <v>0.00319027777777778</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -10289,13 +10440,13 @@
         <v>38</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J59" s="3">
         <v>25.1</v>
       </c>
       <c r="K59" s="6">
-        <v>0.00320416666666667</v>
+        <v>0.00319710648148148</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -10330,7 +10481,7 @@
         <v>25.1</v>
       </c>
       <c r="K60" s="6">
-        <v>0.00321111111111111</v>
+        <v>0.00320416666666667</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -10359,13 +10510,13 @@
         <v>38</v>
       </c>
       <c r="I61" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>25.1</v>
       </c>
       <c r="K61" s="6">
-        <v>0.00322418981481481</v>
+        <v>0.00321111111111111</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -10394,13 +10545,13 @@
         <v>38</v>
       </c>
       <c r="I62" s="3">
-        <v>98.4</v>
+        <v>90</v>
       </c>
       <c r="J62" s="3">
         <v>25.1</v>
       </c>
       <c r="K62" s="6">
-        <v>0.00323113425925926</v>
+        <v>0.00322418981481481</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -10429,13 +10580,13 @@
         <v>38</v>
       </c>
       <c r="I63" s="3">
-        <v>100</v>
+        <v>98.4</v>
       </c>
       <c r="J63" s="3">
         <v>25.1</v>
       </c>
       <c r="K63" s="6">
-        <v>0.0032380787037037</v>
+        <v>0.00323113425925926</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -10464,13 +10615,13 @@
         <v>38</v>
       </c>
       <c r="I64" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J64" s="3">
         <v>25.1</v>
       </c>
       <c r="K64" s="6">
-        <v>0.00324490740740741</v>
+        <v>0.0032380787037037</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -10499,13 +10650,13 @@
         <v>38</v>
       </c>
       <c r="I65" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J65" s="3">
         <v>25.1</v>
       </c>
       <c r="K65" s="6">
-        <v>0.00325185185185185</v>
+        <v>0.00324490740740741</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -10534,13 +10685,13 @@
         <v>38</v>
       </c>
       <c r="I66" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>25.1</v>
       </c>
       <c r="K66" s="6">
-        <v>0.00325868055555556</v>
+        <v>0.00325185185185185</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -10569,13 +10720,13 @@
         <v>38</v>
       </c>
       <c r="I67" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J67" s="3">
         <v>25.1</v>
       </c>
       <c r="K67" s="6">
-        <v>0.00326574074074074</v>
+        <v>0.00325868055555556</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -10610,7 +10761,7 @@
         <v>25.1</v>
       </c>
       <c r="K68" s="6">
-        <v>0.00327951388888889</v>
+        <v>0.00326574074074074</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -10645,7 +10796,7 @@
         <v>25.1</v>
       </c>
       <c r="K69" s="6">
-        <v>0.00328645833333333</v>
+        <v>0.00327951388888889</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -10674,13 +10825,13 @@
         <v>38</v>
       </c>
       <c r="I70" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>25.1</v>
       </c>
       <c r="K70" s="6">
-        <v>0.00329328703703704</v>
+        <v>0.00328645833333333</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -10709,13 +10860,13 @@
         <v>38</v>
       </c>
       <c r="I71" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J71" s="3">
         <v>25.1</v>
       </c>
       <c r="K71" s="6">
-        <v>0.00330034722222222</v>
+        <v>0.00329328703703704</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -10750,7 +10901,7 @@
         <v>25.1</v>
       </c>
       <c r="K72" s="6">
-        <v>0.00330729166666667</v>
+        <v>0.00330034722222222</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -10779,13 +10930,13 @@
         <v>38</v>
       </c>
       <c r="I73" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J73" s="3">
         <v>25.1</v>
       </c>
       <c r="K73" s="6">
-        <v>0.00332094907407407</v>
+        <v>0.00330729166666667</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -10814,13 +10965,13 @@
         <v>38</v>
       </c>
       <c r="I74" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J74" s="3">
         <v>25.1</v>
       </c>
       <c r="K74" s="6">
-        <v>0.00332800925925926</v>
+        <v>0.00332094907407407</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -10846,16 +10997,16 @@
         <v>56252</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I75" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J75" s="3">
         <v>25.1</v>
       </c>
       <c r="K75" s="6">
-        <v>0.00333263888888889</v>
+        <v>0.00332800925925926</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -10890,6 +11041,41 @@
         <v>25.1</v>
       </c>
       <c r="K76" s="6">
+        <v>0.00333263888888889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="3">
+        <v>3809</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="3">
+        <v>20</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>393572</v>
+      </c>
+      <c r="F77" s="3">
+        <v>127776</v>
+      </c>
+      <c r="G77" s="3">
+        <v>56252</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K77" s="6">
         <v>0.00333263888888889</v>
       </c>
     </row>
@@ -10902,10 +11088,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10914,88 +11100,56 @@
     <col min="2" max="2" width="5.125" customWidth="true"/>
     <col min="3" max="3" width="3.125" customWidth="true"/>
     <col min="4" max="4" width="2.25" customWidth="true"/>
+    <col min="13" max="13" width="13.125" customWidth="true"/>
+    <col min="14" max="14" width="12.625"/>
+    <col min="16" max="16" width="11.5"/>
+    <col min="17" max="18" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3">
-        <v>4382</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>388124</v>
-      </c>
-      <c r="F2" s="3">
-        <v>125980</v>
-      </c>
-      <c r="G2" s="3">
-        <v>54808</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>24.8</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.000288888888888889</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -11032,11 +11186,11 @@
       <c r="K3" s="6">
         <v>0.000288888888888889</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>43</v>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11073,11 +11227,11 @@
       <c r="K4" s="6">
         <v>0.000288888888888889</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>44</v>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11114,14 +11268,14 @@
       <c r="K5" s="6">
         <v>0.000301157407407407</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="9">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>4382</v>
       </c>
@@ -11155,8 +11309,14 @@
       <c r="K6" s="6">
         <v>0.000308101851851852</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>4382</v>
       </c>
@@ -11189,6 +11349,12 @@
       </c>
       <c r="K7" s="6">
         <v>0.000314814814814815</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -11252,13 +11418,13 @@
         <v>38</v>
       </c>
       <c r="I9" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>25</v>
       </c>
       <c r="K9" s="6">
-        <v>0.000328703703703704</v>
+        <v>0.000335648148148148</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -11287,13 +11453,13 @@
         <v>38</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J10" s="3">
         <v>25</v>
       </c>
       <c r="K10" s="6">
-        <v>0.000335648148148148</v>
+        <v>0.000342476851851852</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -11322,13 +11488,13 @@
         <v>38</v>
       </c>
       <c r="I11" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J11" s="3">
         <v>25</v>
       </c>
       <c r="K11" s="6">
-        <v>0.000342476851851852</v>
+        <v>0.000349421296296296</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -11363,7 +11529,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="6">
-        <v>0.000349421296296296</v>
+        <v>0.000363310185185185</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -11392,13 +11558,13 @@
         <v>38</v>
       </c>
       <c r="I13" s="3">
-        <v>98.4</v>
+        <v>96.7</v>
       </c>
       <c r="J13" s="3">
         <v>25</v>
       </c>
       <c r="K13" s="6">
-        <v>0.000356365740740741</v>
+        <v>0.000370023148148148</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -11427,13 +11593,13 @@
         <v>38</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="J14" s="3">
         <v>25</v>
       </c>
       <c r="K14" s="6">
-        <v>0.000363310185185185</v>
+        <v>0.00037650462962963</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -11468,7 +11634,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="6">
-        <v>0.000370023148148148</v>
+        <v>0.000390393518518518</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -11497,16 +11663,16 @@
         <v>38</v>
       </c>
       <c r="I16" s="3">
-        <v>93.3</v>
+        <v>100</v>
       </c>
       <c r="J16" s="3">
         <v>25</v>
       </c>
       <c r="K16" s="6">
-        <v>0.00037650462962963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.000397337962962963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <v>4382</v>
       </c>
@@ -11532,16 +11698,34 @@
         <v>38</v>
       </c>
       <c r="I17" s="3">
-        <v>101.7</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>25</v>
       </c>
       <c r="K17" s="6">
-        <v>0.000383564814814815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.000404282407407407</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>4382</v>
       </c>
@@ -11567,123 +11751,152 @@
         <v>38</v>
       </c>
       <c r="I18" s="3">
-        <v>96.7</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>25</v>
       </c>
       <c r="K18" s="6">
-        <v>0.000390393518518518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>4382</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
+        <v>0.000411226851851852</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" ref="N18:R18" si="0">AVERAGEIF($H$3:$H$18,"R",E$3:E$18)</f>
         <v>393524</v>
       </c>
-      <c r="F19" s="3">
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
         <v>127384</v>
       </c>
-      <c r="G19" s="3">
+      <c r="P18" s="3">
+        <f t="shared" si="0"/>
         <v>56120</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="3">
-        <v>100</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="Q18" s="3">
+        <f>AVERAGEIF($H$3:$H$18,"R",I$3:I$18)</f>
+        <v>98.5714285714286</v>
+      </c>
+      <c r="R18" s="3">
+        <f>AVERAGEIF($H$3:$H$18,"R",J$3:J$18)</f>
         <v>25</v>
       </c>
-      <c r="K19" s="6">
-        <v>0.000397337962962963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>4382</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>393524</v>
-      </c>
-      <c r="F20" s="3">
-        <v>127384</v>
-      </c>
-      <c r="G20" s="3">
-        <v>56120</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
+    </row>
+    <row r="19" spans="13:18">
+      <c r="M19" s="11">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19:R19" si="1">AVERAGEIF($H$22:$H$42,"R",E$22:E$42)</f>
+        <v>393772</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>128152</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="1"/>
+        <v>56320</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>AVERAGEIF($H$22:$H$42,"R",I$22:I$42)</f>
+        <v>99.9</v>
+      </c>
+      <c r="R19" s="3">
+        <f>AVERAGEIF($H$22:$H$42,"R",J$22:J$42)</f>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="11">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20:R20" si="2">AVERAGEIF($H$46:$H$66,"R",E$46:E$66)</f>
+        <v>393040</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="2"/>
+        <v>127228</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>56208</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>AVERAGEIF($H$46:$H$66,"R",I$46:I$66)</f>
+        <v>99.6</v>
+      </c>
+      <c r="R20" s="3">
+        <f>AVERAGEIF($H$46:$H$66,"R",J$46:J$66)</f>
         <v>25</v>
       </c>
-      <c r="K20" s="6">
-        <v>0.000404282407407407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>4382</v>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>393524</v>
-      </c>
-      <c r="F21" s="3">
-        <v>127384</v>
-      </c>
-      <c r="G21" s="3">
-        <v>56120</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>25</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.000411226851851852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="11">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21:R21" si="3">AVERAGEIF($H$70:$H$89,"R",E$70:E$89)</f>
+        <v>393560</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="3"/>
+        <v>127644</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="3"/>
+        <v>56348</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>AVERAGEIF($H$70:$H$89,"R",I$70:I$89)</f>
+        <v>99.675</v>
+      </c>
+      <c r="R21" s="3">
+        <f>AVERAGEIF($H$70:$H$89,"R",J$70:J$89)</f>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
-        <v>4382</v>
+        <v>4687</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
@@ -11695,13 +11908,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>393524</v>
+        <v>388372</v>
       </c>
       <c r="F22" s="3">
-        <v>127384</v>
+        <v>126748</v>
       </c>
       <c r="G22" s="3">
-        <v>56120</v>
+        <v>55008</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>37</v>
@@ -11710,15 +11923,38 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.000981597222222222</v>
+      </c>
+      <c r="M22" s="11">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" ref="N22:R22" si="4">AVERAGEIF($H$93:$H$113,"R",E$93:E$113)</f>
+        <v>393044</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="4"/>
+        <v>127060</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>56244</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>AVERAGEIF($H$93:$H$113,"R",I$93:I$113)</f>
+        <v>99.9</v>
+      </c>
+      <c r="R22" s="3">
+        <f>AVERAGEIF($H$93:$H$113,"R",J$93:J$113)</f>
         <v>25</v>
       </c>
-      <c r="K22" s="6">
-        <v>0.000412847222222222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3">
-        <v>4382</v>
+        <v>4687</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -11730,13 +11966,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>393524</v>
+        <v>388372</v>
       </c>
       <c r="F23" s="3">
-        <v>127384</v>
+        <v>126748</v>
       </c>
       <c r="G23" s="3">
-        <v>56120</v>
+        <v>55008</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>37</v>
@@ -11745,45 +11981,138 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="K23" s="6">
-        <v>0.000412847222222222</v>
+        <v>0.000981597222222222</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" ref="N23:R23" si="5">AVERAGE(N18:N22)</f>
+        <v>393388</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="5"/>
+        <v>127493.6</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="5"/>
+        <v>56248</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="5"/>
+        <v>99.5292857142857</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="5"/>
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
+        <v>4687</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>393772</v>
+      </c>
+      <c r="F24" s="3">
+        <v>128152</v>
+      </c>
+      <c r="G24" s="3">
+        <v>56320</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.000993055555555556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <v>4687</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>393772</v>
+      </c>
+      <c r="F25" s="3">
+        <v>128152</v>
+      </c>
+      <c r="G25" s="3">
+        <v>56320</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.000999884259259259</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
+      <c r="A26" s="3">
+        <v>4687</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>393772</v>
+      </c>
+      <c r="F26" s="3">
+        <v>128152</v>
+      </c>
+      <c r="G26" s="3">
+        <v>56320</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.00100694444444444</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -11800,25 +12129,25 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>388372</v>
+        <v>393772</v>
       </c>
       <c r="F27" s="3">
-        <v>126748</v>
+        <v>128152</v>
       </c>
       <c r="G27" s="3">
-        <v>55008</v>
+        <v>56320</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="K27" s="6">
-        <v>0.000981597222222222</v>
+        <v>0.00101388888888889</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -11835,25 +12164,25 @@
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>388372</v>
+        <v>393772</v>
       </c>
       <c r="F28" s="3">
-        <v>126748</v>
+        <v>128152</v>
       </c>
       <c r="G28" s="3">
-        <v>55008</v>
+        <v>56320</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J28" s="3">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="K28" s="6">
-        <v>0.000981597222222222</v>
+        <v>0.00102083333333333</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -11888,7 +12217,7 @@
         <v>25.2</v>
       </c>
       <c r="K29" s="6">
-        <v>0.000993055555555556</v>
+        <v>0.00102777777777778</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -11917,13 +12246,13 @@
         <v>38</v>
       </c>
       <c r="I30" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J30" s="3">
         <v>25.2</v>
       </c>
       <c r="K30" s="6">
-        <v>0.000999884259259259</v>
+        <v>0.00103483796296296</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -11958,7 +12287,7 @@
         <v>25.2</v>
       </c>
       <c r="K31" s="6">
-        <v>0.00100694444444444</v>
+        <v>0.00104178240740741</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -11993,7 +12322,7 @@
         <v>25.2</v>
       </c>
       <c r="K32" s="6">
-        <v>0.00101388888888889</v>
+        <v>0.00104872685185185</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -12028,7 +12357,7 @@
         <v>25.2</v>
       </c>
       <c r="K33" s="6">
-        <v>0.00102083333333333</v>
+        <v>0.0010556712962963</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -12063,7 +12392,7 @@
         <v>25.2</v>
       </c>
       <c r="K34" s="6">
-        <v>0.00102777777777778</v>
+        <v>0.00106261574074074</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -12098,7 +12427,7 @@
         <v>25.2</v>
       </c>
       <c r="K35" s="6">
-        <v>0.00103483796296296</v>
+        <v>0.00106967592592593</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -12133,7 +12462,7 @@
         <v>25.2</v>
       </c>
       <c r="K36" s="6">
-        <v>0.00104178240740741</v>
+        <v>0.00107662037037037</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -12168,7 +12497,7 @@
         <v>25.2</v>
       </c>
       <c r="K37" s="6">
-        <v>0.00104872685185185</v>
+        <v>0.00108356481481481</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -12203,7 +12532,7 @@
         <v>25.2</v>
       </c>
       <c r="K38" s="6">
-        <v>0.0010556712962963</v>
+        <v>0.00109050925925926</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -12238,7 +12567,7 @@
         <v>25.2</v>
       </c>
       <c r="K39" s="6">
-        <v>0.00106261574074074</v>
+        <v>0.00109756944444444</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -12273,7 +12602,7 @@
         <v>25.2</v>
       </c>
       <c r="K40" s="6">
-        <v>0.00106967592592593</v>
+        <v>0.00110451388888889</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -12299,16 +12628,16 @@
         <v>56320</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>25.2</v>
       </c>
       <c r="K41" s="6">
-        <v>0.00107662037037037</v>
+        <v>0.00110509259259259</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -12334,126 +12663,61 @@
         <v>56320</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>25.2</v>
       </c>
       <c r="K42" s="6">
-        <v>0.00108356481481481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3">
-        <v>4687</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="3">
-        <v>20</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>393772</v>
-      </c>
-      <c r="F43" s="3">
-        <v>128152</v>
-      </c>
-      <c r="G43" s="3">
-        <v>56320</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0.00109050925925926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3">
-        <v>4687</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="3">
-        <v>20</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>393772</v>
-      </c>
-      <c r="F44" s="3">
-        <v>128152</v>
-      </c>
-      <c r="G44" s="3">
-        <v>56320</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0.00109756944444444</v>
+        <v>0.00110509259259259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="3">
-        <v>4687</v>
+      <c r="A45" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="3">
-        <v>20</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>393772</v>
-      </c>
-      <c r="F45" s="3">
-        <v>128152</v>
-      </c>
-      <c r="G45" s="3">
-        <v>56320</v>
+        <v>27</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0.00110451388888889</v>
+        <v>7</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3">
-        <v>4687</v>
+        <v>4764</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>36</v>
@@ -12465,13 +12729,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>393772</v>
+        <v>387640</v>
       </c>
       <c r="F46" s="3">
-        <v>128152</v>
+        <v>125868</v>
       </c>
       <c r="G46" s="3">
-        <v>56320</v>
+        <v>54940</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>37</v>
@@ -12480,15 +12744,15 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="K46" s="6">
-        <v>0.00110509259259259</v>
+        <v>0.000421064814814815</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3">
-        <v>4687</v>
+        <v>4764</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>36</v>
@@ -12500,13 +12764,13 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>393772</v>
+        <v>387640</v>
       </c>
       <c r="F47" s="3">
-        <v>128152</v>
+        <v>125868</v>
       </c>
       <c r="G47" s="3">
-        <v>56320</v>
+        <v>54940</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>37</v>
@@ -12515,45 +12779,115 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="K47" s="6">
-        <v>0.00110509259259259</v>
+        <v>0.000421064814814815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>4764</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>393040</v>
+      </c>
+      <c r="F48" s="3">
+        <v>127228</v>
+      </c>
+      <c r="G48" s="3">
+        <v>56208</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.000432291666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
+        <v>4764</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="3">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>393040</v>
+      </c>
+      <c r="F49" s="3">
+        <v>127228</v>
+      </c>
+      <c r="G49" s="3">
+        <v>56208</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>25</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.000439236111111111</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
+      <c r="A50" s="3">
+        <v>4764</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>393040</v>
+      </c>
+      <c r="F50" s="3">
+        <v>127228</v>
+      </c>
+      <c r="G50" s="3">
+        <v>56208</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I50" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J50" s="3">
+        <v>25</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.000446064814814815</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -12570,25 +12904,25 @@
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>387640</v>
+        <v>393040</v>
       </c>
       <c r="F51" s="3">
-        <v>125868</v>
+        <v>127228</v>
       </c>
       <c r="G51" s="3">
-        <v>54940</v>
+        <v>56208</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I51" s="3">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="J51" s="3">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="K51" s="6">
-        <v>0.000421064814814815</v>
+        <v>0.000452893518518519</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -12605,25 +12939,25 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>387640</v>
+        <v>393040</v>
       </c>
       <c r="F52" s="3">
-        <v>125868</v>
+        <v>127228</v>
       </c>
       <c r="G52" s="3">
-        <v>54940</v>
+        <v>56208</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="K52" s="6">
-        <v>0.000421064814814815</v>
+        <v>0.000459837962962963</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -12658,7 +12992,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="6">
-        <v>0.000432291666666667</v>
+        <v>0.000466898148148148</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -12693,7 +13027,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="6">
-        <v>0.000439236111111111</v>
+        <v>0.000473842592592593</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -12728,7 +13062,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="6">
-        <v>0.000446064814814815</v>
+        <v>0.000480671296296296</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -12757,13 +13091,13 @@
         <v>38</v>
       </c>
       <c r="I56" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J56" s="3">
         <v>25</v>
       </c>
       <c r="K56" s="6">
-        <v>0.000452893518518519</v>
+        <v>0.000487615740740741</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -12798,7 +13132,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="6">
-        <v>0.000459837962962963</v>
+        <v>0.000494675925925926</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -12833,7 +13167,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="6">
-        <v>0.000466898148148148</v>
+        <v>0.00050162037037037</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -12868,7 +13202,7 @@
         <v>25</v>
       </c>
       <c r="K59" s="6">
-        <v>0.000473842592592593</v>
+        <v>0.000508564814814815</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -12897,13 +13231,13 @@
         <v>38</v>
       </c>
       <c r="I60" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>25</v>
       </c>
       <c r="K60" s="6">
-        <v>0.000480671296296296</v>
+        <v>0.000515509259259259</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -12932,13 +13266,13 @@
         <v>38</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J61" s="3">
         <v>25</v>
       </c>
       <c r="K61" s="6">
-        <v>0.000487615740740741</v>
+        <v>0.000522337962962963</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -12973,7 +13307,7 @@
         <v>25</v>
       </c>
       <c r="K62" s="6">
-        <v>0.000494675925925926</v>
+        <v>0.000529398148148148</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -13008,7 +13342,7 @@
         <v>25</v>
       </c>
       <c r="K63" s="6">
-        <v>0.00050162037037037</v>
+        <v>0.000536342592592593</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -13043,7 +13377,7 @@
         <v>25</v>
       </c>
       <c r="K64" s="6">
-        <v>0.000508564814814815</v>
+        <v>0.000543287037037037</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -13069,16 +13403,16 @@
         <v>56208</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I65" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3">
         <v>25</v>
       </c>
       <c r="K65" s="6">
-        <v>0.000515509259259259</v>
+        <v>0.000544791666666667</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -13104,126 +13438,61 @@
         <v>56208</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I66" s="3">
-        <v>98.3</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>25</v>
       </c>
       <c r="K66" s="6">
-        <v>0.000522337962962963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="3">
-        <v>4764</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="3">
-        <v>20</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>393040</v>
-      </c>
-      <c r="F67" s="3">
-        <v>127228</v>
-      </c>
-      <c r="G67" s="3">
-        <v>56208</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="3">
-        <v>100</v>
-      </c>
-      <c r="J67" s="3">
-        <v>25</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0.000529398148148148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="3">
-        <v>4764</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="3">
-        <v>20</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>393040</v>
-      </c>
-      <c r="F68" s="3">
-        <v>127228</v>
-      </c>
-      <c r="G68" s="3">
-        <v>56208</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="3">
-        <v>100</v>
-      </c>
-      <c r="J68" s="3">
-        <v>25</v>
-      </c>
-      <c r="K68" s="6">
-        <v>0.000536342592592593</v>
+        <v>0.000544791666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="3">
-        <v>4764</v>
+      <c r="A69" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="3">
-        <v>20</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>393040</v>
-      </c>
-      <c r="F69" s="3">
-        <v>127228</v>
-      </c>
-      <c r="G69" s="3">
-        <v>56208</v>
+        <v>27</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="3">
-        <v>100</v>
-      </c>
-      <c r="J69" s="3">
-        <v>25</v>
-      </c>
-      <c r="K69" s="6">
-        <v>0.000543287037037037</v>
+        <v>7</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3">
-        <v>4764</v>
+        <v>4796</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>36</v>
@@ -13235,13 +13504,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>393040</v>
+        <v>388160</v>
       </c>
       <c r="F70" s="3">
-        <v>127228</v>
+        <v>126196</v>
       </c>
       <c r="G70" s="3">
-        <v>56208</v>
+        <v>54992</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>37</v>
@@ -13250,15 +13519,15 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="K70" s="6">
-        <v>0.000544791666666667</v>
+        <v>0.000963657407407407</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3">
-        <v>4764</v>
+        <v>4796</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>36</v>
@@ -13270,13 +13539,13 @@
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>393040</v>
+        <v>388160</v>
       </c>
       <c r="F71" s="3">
-        <v>127228</v>
+        <v>126196</v>
       </c>
       <c r="G71" s="3">
-        <v>56208</v>
+        <v>54992</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>37</v>
@@ -13285,45 +13554,115 @@
         <v>0</v>
       </c>
       <c r="J71" s="3">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="K71" s="6">
-        <v>0.000544791666666667</v>
+        <v>0.000963657407407407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="3">
+        <v>4796</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="3">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>393560</v>
+      </c>
+      <c r="F72" s="3">
+        <v>127644</v>
+      </c>
+      <c r="G72" s="3">
+        <v>56348</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J72" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0.000977083333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="3">
+        <v>4796</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="3">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>393560</v>
+      </c>
+      <c r="F73" s="3">
+        <v>127644</v>
+      </c>
+      <c r="G73" s="3">
+        <v>56348</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="3">
+        <v>100</v>
+      </c>
+      <c r="J73" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0.000984027777777778</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
+      <c r="A74" s="3">
+        <v>4796</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C74" s="3">
+        <v>20</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>393560</v>
+      </c>
+      <c r="F74" s="3">
+        <v>127644</v>
+      </c>
+      <c r="G74" s="3">
+        <v>56348</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I74" s="3">
+        <v>100</v>
+      </c>
+      <c r="J74" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0.000990972222222222</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -13340,25 +13679,25 @@
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <v>388160</v>
+        <v>393560</v>
       </c>
       <c r="F75" s="3">
-        <v>126196</v>
+        <v>127644</v>
       </c>
       <c r="G75" s="3">
-        <v>54992</v>
+        <v>56348</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I75" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J75" s="3">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="K75" s="6">
-        <v>0.000963657407407407</v>
+        <v>0.000998032407407408</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -13375,25 +13714,25 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>388160</v>
+        <v>393560</v>
       </c>
       <c r="F76" s="3">
-        <v>126196</v>
+        <v>127644</v>
       </c>
       <c r="G76" s="3">
-        <v>54992</v>
+        <v>56348</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="K76" s="6">
-        <v>0.000963657407407407</v>
+        <v>0.00100497685185185</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -13422,13 +13761,13 @@
         <v>38</v>
       </c>
       <c r="I77" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J77" s="3">
         <v>25.1</v>
       </c>
       <c r="K77" s="6">
-        <v>0.000977083333333333</v>
+        <v>0.0010119212962963</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -13463,7 +13802,7 @@
         <v>25.1</v>
       </c>
       <c r="K78" s="6">
-        <v>0.000984027777777778</v>
+        <v>0.00101886574074074</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -13492,13 +13831,13 @@
         <v>38</v>
       </c>
       <c r="I79" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J79" s="3">
         <v>25.1</v>
       </c>
       <c r="K79" s="6">
-        <v>0.000990972222222222</v>
+        <v>0.00102569444444444</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -13533,7 +13872,7 @@
         <v>25.1</v>
       </c>
       <c r="K80" s="6">
-        <v>0.000998032407407408</v>
+        <v>0.00103275462962963</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -13568,7 +13907,7 @@
         <v>25.1</v>
       </c>
       <c r="K81" s="6">
-        <v>0.00100497685185185</v>
+        <v>0.00103969907407407</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -13603,7 +13942,7 @@
         <v>25.1</v>
       </c>
       <c r="K82" s="6">
-        <v>0.0010119212962963</v>
+        <v>0.00104664351851852</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -13632,13 +13971,13 @@
         <v>38</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J83" s="3">
         <v>25.1</v>
       </c>
       <c r="K83" s="6">
-        <v>0.00101886574074074</v>
+        <v>0.00105347222222222</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -13667,13 +14006,13 @@
         <v>38</v>
       </c>
       <c r="I84" s="3">
-        <v>98.3</v>
+        <v>101.6</v>
       </c>
       <c r="J84" s="3">
         <v>25.1</v>
       </c>
       <c r="K84" s="6">
-        <v>0.00102569444444444</v>
+        <v>0.00106064814814815</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -13702,13 +14041,13 @@
         <v>38</v>
       </c>
       <c r="I85" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J85" s="3">
         <v>25.1</v>
       </c>
       <c r="K85" s="6">
-        <v>0.00103275462962963</v>
+        <v>0.00106747685185185</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13743,7 +14082,7 @@
         <v>25.1</v>
       </c>
       <c r="K86" s="6">
-        <v>0.00103969907407407</v>
+        <v>0.0010744212962963</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13778,7 +14117,7 @@
         <v>25.1</v>
       </c>
       <c r="K87" s="6">
-        <v>0.00104664351851852</v>
+        <v>0.00108136574074074</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13804,16 +14143,16 @@
         <v>56348</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I88" s="3">
-        <v>98.3</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3">
         <v>25.1</v>
       </c>
       <c r="K88" s="6">
-        <v>0.00105347222222222</v>
+        <v>0.00108738425925926</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13839,126 +14178,61 @@
         <v>56348</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I89" s="3">
-        <v>101.6</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>25.1</v>
       </c>
       <c r="K89" s="6">
-        <v>0.00106064814814815</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3">
-        <v>4796</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="3">
-        <v>20</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3">
-        <v>393560</v>
-      </c>
-      <c r="F90" s="3">
-        <v>127644</v>
-      </c>
-      <c r="G90" s="3">
-        <v>56348</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I90" s="3">
-        <v>98.3</v>
-      </c>
-      <c r="J90" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K90" s="6">
-        <v>0.00106747685185185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="3">
-        <v>4796</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="3">
-        <v>20</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>393560</v>
-      </c>
-      <c r="F91" s="3">
-        <v>127644</v>
-      </c>
-      <c r="G91" s="3">
-        <v>56348</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I91" s="3">
-        <v>100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0.0010744212962963</v>
+        <v>0.00108738425925926</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="3">
-        <v>4796</v>
+      <c r="A92" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="3">
-        <v>20</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <v>393560</v>
-      </c>
-      <c r="F92" s="3">
-        <v>127644</v>
-      </c>
-      <c r="G92" s="3">
-        <v>56348</v>
+        <v>27</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="3">
-        <v>100</v>
-      </c>
-      <c r="J92" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K92" s="6">
-        <v>0.00108136574074074</v>
+        <v>7</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3">
-        <v>4796</v>
+        <v>4848</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>36</v>
@@ -13970,13 +14244,13 @@
         <v>0</v>
       </c>
       <c r="E93" s="3">
-        <v>393560</v>
+        <v>387644</v>
       </c>
       <c r="F93" s="3">
-        <v>127644</v>
+        <v>125812</v>
       </c>
       <c r="G93" s="3">
-        <v>56348</v>
+        <v>55088</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>37</v>
@@ -13985,15 +14259,15 @@
         <v>0</v>
       </c>
       <c r="J93" s="3">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="K93" s="6">
-        <v>0.00108738425925926</v>
+        <v>0.00101238425925926</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3">
-        <v>4796</v>
+        <v>4848</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>36</v>
@@ -14005,13 +14279,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>393560</v>
+        <v>387644</v>
       </c>
       <c r="F94" s="3">
-        <v>127644</v>
+        <v>125812</v>
       </c>
       <c r="G94" s="3">
-        <v>56348</v>
+        <v>55088</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>37</v>
@@ -14020,45 +14294,115 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="K94" s="6">
-        <v>0.00108738425925926</v>
+        <v>0.00101238425925926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="3">
+        <v>4848</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="3">
+        <v>20</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>393044</v>
+      </c>
+      <c r="F95" s="3">
+        <v>127060</v>
+      </c>
+      <c r="G95" s="3">
+        <v>56244</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J95" s="3">
+        <v>25</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0.00102071759259259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="3">
+        <v>4848</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="3">
+        <v>20</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>393044</v>
+      </c>
+      <c r="F96" s="3">
+        <v>127060</v>
+      </c>
+      <c r="G96" s="3">
+        <v>56244</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="3">
+        <v>100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>25</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0.00102777777777778</v>
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="2" t="s">
-        <v>0</v>
+      <c r="A97" s="3">
+        <v>4848</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C97" s="3">
+        <v>20</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>393044</v>
+      </c>
+      <c r="F97" s="3">
+        <v>127060</v>
+      </c>
+      <c r="G97" s="3">
+        <v>56244</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I97" s="3">
+        <v>100</v>
+      </c>
+      <c r="J97" s="3">
+        <v>25</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0.00103472222222222</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -14075,25 +14419,25 @@
         <v>0</v>
       </c>
       <c r="E98" s="3">
-        <v>387644</v>
+        <v>393044</v>
       </c>
       <c r="F98" s="3">
-        <v>125812</v>
+        <v>127060</v>
       </c>
       <c r="G98" s="3">
-        <v>55088</v>
+        <v>56244</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I98" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J98" s="3">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="K98" s="6">
-        <v>0.00101238425925926</v>
+        <v>0.00104166666666667</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -14110,25 +14454,25 @@
         <v>0</v>
       </c>
       <c r="E99" s="3">
-        <v>387644</v>
+        <v>393044</v>
       </c>
       <c r="F99" s="3">
-        <v>125812</v>
+        <v>127060</v>
       </c>
       <c r="G99" s="3">
-        <v>55088</v>
+        <v>56244</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I99" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J99" s="3">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="K99" s="6">
-        <v>0.00101238425925926</v>
+        <v>0.00104861111111111</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -14157,13 +14501,13 @@
         <v>38</v>
       </c>
       <c r="I100" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>25</v>
       </c>
       <c r="K100" s="6">
-        <v>0.00102071759259259</v>
+        <v>0.00105555555555556</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -14198,7 +14542,7 @@
         <v>25</v>
       </c>
       <c r="K101" s="6">
-        <v>0.00102777777777778</v>
+        <v>0.00106261574074074</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -14233,7 +14577,7 @@
         <v>25</v>
       </c>
       <c r="K102" s="6">
-        <v>0.00103472222222222</v>
+        <v>0.00106956018518519</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -14268,7 +14612,7 @@
         <v>25</v>
       </c>
       <c r="K103" s="6">
-        <v>0.00104166666666667</v>
+        <v>0.00107650462962963</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -14303,7 +14647,7 @@
         <v>25</v>
       </c>
       <c r="K104" s="6">
-        <v>0.00104861111111111</v>
+        <v>0.00108344907407407</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -14338,7 +14682,7 @@
         <v>25</v>
       </c>
       <c r="K105" s="6">
-        <v>0.00105555555555556</v>
+        <v>0.00109050925925926</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -14373,7 +14717,7 @@
         <v>25</v>
       </c>
       <c r="K106" s="6">
-        <v>0.00106261574074074</v>
+        <v>0.0010974537037037</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -14408,7 +14752,7 @@
         <v>25</v>
       </c>
       <c r="K107" s="6">
-        <v>0.00106956018518519</v>
+        <v>0.00110439814814815</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -14443,7 +14787,7 @@
         <v>25</v>
       </c>
       <c r="K108" s="6">
-        <v>0.00107650462962963</v>
+        <v>0.00111134259259259</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -14478,7 +14822,7 @@
         <v>25</v>
       </c>
       <c r="K109" s="6">
-        <v>0.00108344907407407</v>
+        <v>0.00111828703703704</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -14513,7 +14857,7 @@
         <v>25</v>
       </c>
       <c r="K110" s="6">
-        <v>0.00109050925925926</v>
+        <v>0.00112534722222222</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -14548,7 +14892,7 @@
         <v>25</v>
       </c>
       <c r="K111" s="6">
-        <v>0.0010974537037037</v>
+        <v>0.00113229166666667</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -14574,16 +14918,16 @@
         <v>56244</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I112" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3">
         <v>25</v>
       </c>
       <c r="K112" s="6">
-        <v>0.00110439814814815</v>
+        <v>0.00113553240740741</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -14609,190 +14953,15 @@
         <v>56244</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I113" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3">
         <v>25</v>
       </c>
       <c r="K113" s="6">
-        <v>0.00111134259259259</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="3">
-        <v>4848</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="3">
-        <v>20</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
-        <v>393044</v>
-      </c>
-      <c r="F114" s="3">
-        <v>127060</v>
-      </c>
-      <c r="G114" s="3">
-        <v>56244</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I114" s="3">
-        <v>100</v>
-      </c>
-      <c r="J114" s="3">
-        <v>25</v>
-      </c>
-      <c r="K114" s="6">
-        <v>0.00111828703703704</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="3">
-        <v>4848</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C115" s="3">
-        <v>20</v>
-      </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
-        <v>393044</v>
-      </c>
-      <c r="F115" s="3">
-        <v>127060</v>
-      </c>
-      <c r="G115" s="3">
-        <v>56244</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I115" s="3">
-        <v>100</v>
-      </c>
-      <c r="J115" s="3">
-        <v>25</v>
-      </c>
-      <c r="K115" s="6">
-        <v>0.00112534722222222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="3">
-        <v>4848</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" s="3">
-        <v>20</v>
-      </c>
-      <c r="D116" s="3">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3">
-        <v>393044</v>
-      </c>
-      <c r="F116" s="3">
-        <v>127060</v>
-      </c>
-      <c r="G116" s="3">
-        <v>56244</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I116" s="3">
-        <v>100</v>
-      </c>
-      <c r="J116" s="3">
-        <v>25</v>
-      </c>
-      <c r="K116" s="6">
-        <v>0.00113229166666667</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="3">
-        <v>4848</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C117" s="3">
-        <v>20</v>
-      </c>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3">
-        <v>393044</v>
-      </c>
-      <c r="F117" s="3">
-        <v>127060</v>
-      </c>
-      <c r="G117" s="3">
-        <v>56244</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0</v>
-      </c>
-      <c r="J117" s="3">
-        <v>25</v>
-      </c>
-      <c r="K117" s="6">
-        <v>0.00113553240740741</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="3">
-        <v>4848</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" s="3">
-        <v>20</v>
-      </c>
-      <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3">
-        <v>393044</v>
-      </c>
-      <c r="F118" s="3">
-        <v>127060</v>
-      </c>
-      <c r="G118" s="3">
-        <v>56244</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3">
-        <v>25</v>
-      </c>
-      <c r="K118" s="6">
         <v>0.00113553240740741</v>
       </c>
     </row>
@@ -14805,10 +14974,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14817,89 +14986,60 @@
     <col min="2" max="2" width="5.125" customWidth="true"/>
     <col min="3" max="3" width="3.125" customWidth="true"/>
     <col min="4" max="4" width="2.25" customWidth="true"/>
+    <col min="13" max="13" width="13.125" customWidth="true"/>
+    <col min="14" max="14" width="12.625"/>
+    <col min="15" max="15" width="10.375"/>
+    <col min="16" max="16" width="9.375"/>
+    <col min="17" max="17" width="12.625"/>
+    <col min="18" max="18" width="11.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3">
-        <v>3884</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>388268</v>
-      </c>
-      <c r="F2" s="3">
-        <v>126400</v>
-      </c>
-      <c r="G2" s="3">
-        <v>55208</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>24.9</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.000395949074074074</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="M2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3">
@@ -14935,12 +15075,13 @@
       <c r="K3" s="6">
         <v>0.000395949074074074</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3">
@@ -14976,12 +15117,13 @@
       <c r="K4" s="6">
         <v>0.000395949074074074</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="M4" s="9">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3">
@@ -15017,14 +15159,15 @@
       <c r="K5" s="6">
         <v>0.000403587962962963</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="9">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>3884</v>
       </c>
@@ -15058,8 +15201,15 @@
       <c r="K6" s="6">
         <v>0.000410648148148148</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>3884</v>
       </c>
@@ -15091,7 +15241,13 @@
         <v>25.1</v>
       </c>
       <c r="K7" s="6">
-        <v>0.000424537037037037</v>
+        <v>0.000438541666666667</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -15126,7 +15282,7 @@
         <v>25.1</v>
       </c>
       <c r="K8" s="6">
-        <v>0.000438541666666667</v>
+        <v>0.000452430555555556</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -15161,7 +15317,7 @@
         <v>25.1</v>
       </c>
       <c r="K9" s="6">
-        <v>0.000452430555555556</v>
+        <v>0.000480324074074074</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -15196,7 +15352,7 @@
         <v>25.1</v>
       </c>
       <c r="K10" s="6">
-        <v>0.000466319444444444</v>
+        <v>0.000494212962962963</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -15231,7 +15387,7 @@
         <v>25.1</v>
       </c>
       <c r="K11" s="6">
-        <v>0.000480324074074074</v>
+        <v>0.000508217592592593</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -15266,7 +15422,7 @@
         <v>25.1</v>
       </c>
       <c r="K12" s="6">
-        <v>0.000494212962962963</v>
+        <v>0.000522106481481481</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -15301,7 +15457,7 @@
         <v>25.1</v>
       </c>
       <c r="K13" s="6">
-        <v>0.000508217592592593</v>
+        <v>0.000536111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -15327,126 +15483,102 @@
         <v>56316</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>25.1</v>
       </c>
       <c r="K14" s="6">
-        <v>0.000522106481481481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>3884</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>393668</v>
-      </c>
-      <c r="F15" s="3">
+        <v>0.000556134259259259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ref="N17:R17" si="0">AVERAGEIF($H$3:$H$14,"R",E$3:E$14)</f>
+        <v>393568</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
         <v>127604</v>
       </c>
-      <c r="G15" s="3">
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
         <v>56316</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="Q17" s="3">
+        <f>AVERAGEIF($H$3:$H$14,"R",I$3:I$14)</f>
+        <v>99.6333333333333</v>
+      </c>
+      <c r="R17" s="3">
+        <f>AVERAGEIF($H$3:$H$14,"R",J$3:J$14)</f>
         <v>25.1</v>
       </c>
-      <c r="K15" s="6">
-        <v>0.000536111111111111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>3884</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>393668</v>
-      </c>
-      <c r="F16" s="3">
-        <v>127604</v>
-      </c>
-      <c r="G16" s="3">
-        <v>56316</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="3">
-        <v>100</v>
-      </c>
-      <c r="J16" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.00055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>3884</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>393668</v>
-      </c>
-      <c r="F17" s="3">
-        <v>127604</v>
-      </c>
-      <c r="G17" s="3">
-        <v>56316</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.000556134259259259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>3884</v>
+        <v>4052</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
@@ -15458,13 +15590,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>393668</v>
+        <v>394836</v>
       </c>
       <c r="F18" s="3">
-        <v>127604</v>
+        <v>132740</v>
       </c>
       <c r="G18" s="3">
-        <v>56316</v>
+        <v>54952</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>
@@ -15473,48 +15605,210 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.000484375</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" ref="N18:R18" si="1">AVERAGEIF($H$18:$H$36,"R",E$18:E$36)</f>
+        <v>400236</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>134168</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="1"/>
+        <v>56288</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>AVERAGEIF($H$18:$H$36,"R",I$18:I$36)</f>
+        <v>99.475</v>
+      </c>
+      <c r="R18" s="3">
+        <f>AVERAGEIF($H$18:$H$36,"R",J$18:J$36)</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="3">
+        <v>4052</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>394836</v>
+      </c>
+      <c r="F19" s="3">
+        <v>132740</v>
+      </c>
+      <c r="G19" s="3">
+        <v>54952</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.000484375</v>
+      </c>
+      <c r="M19" s="11">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19:R19" si="2">AVERAGEIF($H$40:$H$58,"R",E$40:E$58)</f>
+        <v>393611.75</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="2"/>
+        <v>127684</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>56392</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>AVERAGEIF($H$40:$H$58,"R",I$40:I$58)</f>
+        <v>99.58125</v>
+      </c>
+      <c r="R19" s="3">
+        <f>AVERAGEIF($H$40:$H$58,"R",J$40:J$58)</f>
         <v>25.1</v>
       </c>
-      <c r="K18" s="6">
-        <v>0.000556134259259259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="3">
+        <v>4052</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400236</v>
+      </c>
+      <c r="F20" s="3">
+        <v>134168</v>
+      </c>
+      <c r="G20" s="3">
+        <v>56288</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.000496527777777778</v>
+      </c>
+      <c r="M20" s="11">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20:R20" si="3">AVERAGEIF($H$62:$H$81,"R",E$62:E$81)</f>
+        <v>393418.117647059</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="3"/>
+        <v>127610.117647059</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="3"/>
+        <v>56214.1176470588</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>AVERAGEIF($H$62:$H$81,"R",I$62:I$81)</f>
+        <v>99.1176470588235</v>
+      </c>
+      <c r="R20" s="3">
+        <f>AVERAGEIF($H$62:$H$81,"R",J$62:J$81)</f>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="3">
+        <v>4052</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>400236</v>
+      </c>
+      <c r="F21" s="3">
+        <v>134168</v>
+      </c>
+      <c r="G21" s="3">
+        <v>56288</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.000503472222222222</v>
+      </c>
+      <c r="M21" s="11">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21:R21" si="4">AVERAGEIF($H$85:$H$107,"R",E$85:E$107)</f>
+        <v>394800</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="4"/>
+        <v>128520</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>56284</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>AVERAGEIF($H$85:$H$107,"R",I$85:I$107)</f>
+        <v>99.5578947368421</v>
+      </c>
+      <c r="R21" s="3">
+        <f>AVERAGEIF($H$85:$H$107,"R",J$85:J$107)</f>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>4052</v>
       </c>
@@ -15528,25 +15822,48 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>394836</v>
+        <v>400236</v>
       </c>
       <c r="F22" s="3">
-        <v>132740</v>
+        <v>134168</v>
       </c>
       <c r="G22" s="3">
-        <v>54952</v>
+        <v>56288</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="J22" s="3">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="K22" s="6">
-        <v>0.000484375</v>
+        <v>0.000510300925925926</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" ref="N22:R22" si="5">AVERAGE(N17:N21)</f>
+        <v>395126.773529412</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="5"/>
+        <v>129117.223529412</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="5"/>
+        <v>56298.8235294118</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="5"/>
+        <v>99.4730250257998</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="5"/>
+        <v>25.4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -15563,25 +15880,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>394836</v>
+        <v>400236</v>
       </c>
       <c r="F23" s="3">
-        <v>132740</v>
+        <v>134168</v>
       </c>
       <c r="G23" s="3">
-        <v>54952</v>
+        <v>56288</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="K23" s="6">
-        <v>0.000484375</v>
+        <v>0.000517361111111111</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -15616,7 +15933,7 @@
         <v>26.4</v>
       </c>
       <c r="K24" s="6">
-        <v>0.000496527777777778</v>
+        <v>0.000531134259259259</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -15651,7 +15968,7 @@
         <v>26.4</v>
       </c>
       <c r="K25" s="6">
-        <v>0.000503472222222222</v>
+        <v>0.000545023148148148</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -15680,13 +15997,13 @@
         <v>38</v>
       </c>
       <c r="I26" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>26.4</v>
       </c>
       <c r="K26" s="6">
-        <v>0.000510300925925926</v>
+        <v>0.000551967592592593</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -15715,13 +16032,13 @@
         <v>38</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J27" s="3">
         <v>26.4</v>
       </c>
       <c r="K27" s="6">
-        <v>0.000517361111111111</v>
+        <v>0.000558796296296296</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -15750,13 +16067,13 @@
         <v>38</v>
       </c>
       <c r="I28" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J28" s="3">
         <v>26.4</v>
       </c>
       <c r="K28" s="6">
-        <v>0.000531134259259259</v>
+        <v>0.000565740740740741</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -15785,13 +16102,13 @@
         <v>38</v>
       </c>
       <c r="I29" s="3">
-        <v>100</v>
+        <v>98.4</v>
       </c>
       <c r="J29" s="3">
         <v>26.4</v>
       </c>
       <c r="K29" s="6">
-        <v>0.000545023148148148</v>
+        <v>0.00057962962962963</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -15826,7 +16143,7 @@
         <v>26.4</v>
       </c>
       <c r="K30" s="6">
-        <v>0.000551967592592593</v>
+        <v>0.000586574074074074</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -15855,13 +16172,13 @@
         <v>38</v>
       </c>
       <c r="I31" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J31" s="3">
         <v>26.4</v>
       </c>
       <c r="K31" s="6">
-        <v>0.000558796296296296</v>
+        <v>0.000593518518518519</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -15896,7 +16213,7 @@
         <v>26.4</v>
       </c>
       <c r="K32" s="6">
-        <v>0.000565740740740741</v>
+        <v>0.000600462962962963</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -15925,13 +16242,13 @@
         <v>38</v>
       </c>
       <c r="I33" s="3">
-        <v>98.4</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>26.4</v>
       </c>
       <c r="K33" s="6">
-        <v>0.00057962962962963</v>
+        <v>0.000614351851851852</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -15966,7 +16283,7 @@
         <v>26.4</v>
       </c>
       <c r="K34" s="6">
-        <v>0.000586574074074074</v>
+        <v>0.000621296296296296</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -16001,7 +16318,7 @@
         <v>26.4</v>
       </c>
       <c r="K35" s="6">
-        <v>0.000593518518518519</v>
+        <v>0.000635069444444444</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -16027,126 +16344,61 @@
         <v>56288</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <v>26.4</v>
       </c>
       <c r="K36" s="6">
-        <v>0.000600462962962963</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="3">
-        <v>4052</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3">
-        <v>20</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>400236</v>
-      </c>
-      <c r="F37" s="3">
-        <v>134168</v>
-      </c>
-      <c r="G37" s="3">
-        <v>56288</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="3">
-        <v>100</v>
-      </c>
-      <c r="J37" s="3">
-        <v>26.4</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0.000614351851851852</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="3">
-        <v>4052</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3">
-        <v>20</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>400236</v>
-      </c>
-      <c r="F38" s="3">
-        <v>134168</v>
-      </c>
-      <c r="G38" s="3">
-        <v>56288</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="3">
-        <v>100</v>
-      </c>
-      <c r="J38" s="3">
-        <v>26.4</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0.000621296296296296</v>
+        <v>0.000645138888888889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="3">
-        <v>4052</v>
+      <c r="A39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3">
-        <v>20</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>400236</v>
-      </c>
-      <c r="F39" s="3">
-        <v>134168</v>
-      </c>
-      <c r="G39" s="3">
-        <v>56288</v>
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="3">
-        <v>100</v>
-      </c>
-      <c r="J39" s="3">
-        <v>26.4</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.000635069444444444</v>
+        <v>7</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="3">
-        <v>4052</v>
+        <v>4226</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>36</v>
@@ -16158,13 +16410,13 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>400236</v>
+        <v>388268</v>
       </c>
       <c r="F40" s="3">
-        <v>134168</v>
+        <v>126452</v>
       </c>
       <c r="G40" s="3">
-        <v>56288</v>
+        <v>55252</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>37</v>
@@ -16173,45 +16425,115 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>26.4</v>
+        <v>24.9</v>
       </c>
       <c r="K40" s="6">
-        <v>0.000645138888888889</v>
+        <v>0.000391550925925926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3">
+        <v>4226</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>388268</v>
+      </c>
+      <c r="F41" s="3">
+        <v>126452</v>
+      </c>
+      <c r="G41" s="3">
+        <v>55252</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.000391550925925926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
+        <v>4226</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>392768</v>
+      </c>
+      <c r="F42" s="3">
+        <v>127684</v>
+      </c>
+      <c r="G42" s="3">
+        <v>56392</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <v>95</v>
+      </c>
+      <c r="J42" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.000398726851851852</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
+      <c r="A43" s="3">
+        <v>4226</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C43" s="3">
+        <v>20</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>393668</v>
+      </c>
+      <c r="F43" s="3">
+        <v>127684</v>
+      </c>
+      <c r="G43" s="3">
+        <v>56392</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.000405671296296296</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -16228,25 +16550,25 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>388268</v>
+        <v>393668</v>
       </c>
       <c r="F44" s="3">
-        <v>126452</v>
+        <v>127684</v>
       </c>
       <c r="G44" s="3">
-        <v>55252</v>
+        <v>56392</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="K44" s="6">
-        <v>0.000391550925925926</v>
+        <v>0.000412731481481481</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -16263,25 +16585,25 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>388268</v>
+        <v>393668</v>
       </c>
       <c r="F45" s="3">
-        <v>126452</v>
+        <v>127684</v>
       </c>
       <c r="G45" s="3">
-        <v>55252</v>
+        <v>56392</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="K45" s="6">
-        <v>0.000391550925925926</v>
+        <v>0.000419675925925926</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -16298,25 +16620,25 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>388268</v>
+        <v>393668</v>
       </c>
       <c r="F46" s="3">
-        <v>126452</v>
+        <v>127684</v>
       </c>
       <c r="G46" s="3">
-        <v>55252</v>
+        <v>56392</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="J46" s="3">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="K46" s="6">
-        <v>0.000391550925925926</v>
+        <v>0.00042650462962963</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -16333,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>392768</v>
+        <v>393668</v>
       </c>
       <c r="F47" s="3">
         <v>127684</v>
@@ -16345,13 +16667,13 @@
         <v>38</v>
       </c>
       <c r="I47" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>25.1</v>
       </c>
       <c r="K47" s="6">
-        <v>0.000398726851851852</v>
+        <v>0.000433449074074074</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -16386,7 +16708,7 @@
         <v>25.1</v>
       </c>
       <c r="K48" s="6">
-        <v>0.000405671296296296</v>
+        <v>0.000440393518518519</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -16421,7 +16743,7 @@
         <v>25.1</v>
       </c>
       <c r="K49" s="6">
-        <v>0.000412731481481481</v>
+        <v>0.000454398148148148</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -16456,7 +16778,7 @@
         <v>25.1</v>
       </c>
       <c r="K50" s="6">
-        <v>0.000419675925925926</v>
+        <v>0.000475347222222222</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -16485,13 +16807,13 @@
         <v>38</v>
       </c>
       <c r="I51" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J51" s="3">
         <v>25.1</v>
       </c>
       <c r="K51" s="6">
-        <v>0.00042650462962963</v>
+        <v>0.000496064814814815</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -16526,7 +16848,7 @@
         <v>25.1</v>
       </c>
       <c r="K52" s="6">
-        <v>0.000433449074074074</v>
+        <v>0.000503009259259259</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -16561,7 +16883,7 @@
         <v>25.1</v>
       </c>
       <c r="K53" s="6">
-        <v>0.000440393518518519</v>
+        <v>0.000510069444444444</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -16596,7 +16918,7 @@
         <v>25.1</v>
       </c>
       <c r="K54" s="6">
-        <v>0.000454398148148148</v>
+        <v>0.000517013888888889</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -16631,7 +16953,7 @@
         <v>25.1</v>
       </c>
       <c r="K55" s="6">
-        <v>0.000475347222222222</v>
+        <v>0.000530902777777778</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -16666,7 +16988,7 @@
         <v>25.1</v>
       </c>
       <c r="K56" s="6">
-        <v>0.000496064814814815</v>
+        <v>0.000544791666666667</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -16701,7 +17023,7 @@
         <v>25.1</v>
       </c>
       <c r="K57" s="6">
-        <v>0.000503009259259259</v>
+        <v>0.000551736111111111</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -16727,126 +17049,61 @@
         <v>56392</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>25.1</v>
       </c>
       <c r="K58" s="6">
-        <v>0.000510069444444444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3">
-        <v>4226</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="3">
-        <v>20</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>393668</v>
-      </c>
-      <c r="F59" s="3">
-        <v>127684</v>
-      </c>
-      <c r="G59" s="3">
-        <v>56392</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0.000517013888888889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3">
-        <v>4226</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="3">
-        <v>20</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>393668</v>
-      </c>
-      <c r="F60" s="3">
-        <v>127684</v>
-      </c>
-      <c r="G60" s="3">
-        <v>56392</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K60" s="6">
-        <v>0.000530902777777778</v>
+        <v>0.000552083333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="3">
-        <v>4226</v>
+      <c r="A61" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="3">
-        <v>20</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>393668</v>
-      </c>
-      <c r="F61" s="3">
-        <v>127684</v>
-      </c>
-      <c r="G61" s="3">
-        <v>56392</v>
+        <v>27</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0.000544791666666667</v>
+        <v>7</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3">
-        <v>4226</v>
+        <v>3941</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>36</v>
@@ -16858,30 +17115,30 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>393668</v>
+        <v>388124</v>
       </c>
       <c r="F62" s="3">
-        <v>127684</v>
+        <v>126232</v>
       </c>
       <c r="G62" s="3">
-        <v>56392</v>
+        <v>54928</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="K62" s="6">
-        <v>0.000551736111111111</v>
+        <v>0.000270023148148148</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3">
-        <v>4226</v>
+        <v>3941</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>36</v>
@@ -16893,13 +17150,13 @@
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>393668</v>
+        <v>388124</v>
       </c>
       <c r="F63" s="3">
-        <v>127684</v>
+        <v>126232</v>
       </c>
       <c r="G63" s="3">
-        <v>56392</v>
+        <v>54928</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>37</v>
@@ -16908,15 +17165,15 @@
         <v>0</v>
       </c>
       <c r="J63" s="3">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="K63" s="6">
-        <v>0.000552083333333333</v>
+        <v>0.000270023148148148</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3">
-        <v>4226</v>
+        <v>3941</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>36</v>
@@ -16928,60 +17185,130 @@
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <v>393668</v>
+        <v>391724</v>
       </c>
       <c r="F64" s="3">
-        <v>127684</v>
+        <v>127644</v>
       </c>
       <c r="G64" s="3">
-        <v>56392</v>
+        <v>56248</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I64" s="3">
-        <v>0</v>
+        <v>95.1</v>
       </c>
       <c r="J64" s="3">
         <v>25.1</v>
       </c>
       <c r="K64" s="6">
-        <v>0.000552083333333333</v>
+        <v>0.000276736111111111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="3">
+        <v>3941</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="3">
+        <v>20</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>393524</v>
+      </c>
+      <c r="F65" s="3">
+        <v>127608</v>
+      </c>
+      <c r="G65" s="3">
+        <v>56212</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J65" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.000283564814814815</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="3">
+        <v>3941</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="3">
+        <v>20</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>393524</v>
+      </c>
+      <c r="F66" s="3">
+        <v>127608</v>
+      </c>
+      <c r="G66" s="3">
+        <v>56212</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0.000290509259259259</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
+      <c r="A67" s="3">
+        <v>3941</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C67" s="3">
+        <v>20</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>393524</v>
+      </c>
+      <c r="F67" s="3">
+        <v>127608</v>
+      </c>
+      <c r="G67" s="3">
+        <v>56212</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I67" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J67" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.000297337962962963</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -16998,25 +17325,25 @@
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>388124</v>
+        <v>393524</v>
       </c>
       <c r="F68" s="3">
-        <v>126232</v>
+        <v>127608</v>
       </c>
       <c r="G68" s="3">
-        <v>54928</v>
+        <v>56212</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I68" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J68" s="3">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="K68" s="6">
-        <v>0.000270023148148148</v>
+        <v>0.000304398148148148</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -17033,25 +17360,25 @@
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>388124</v>
+        <v>393524</v>
       </c>
       <c r="F69" s="3">
-        <v>126232</v>
+        <v>127608</v>
       </c>
       <c r="G69" s="3">
-        <v>54928</v>
+        <v>56212</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J69" s="3">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="K69" s="6">
-        <v>0.000270023148148148</v>
+        <v>0.000325115740740741</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -17068,25 +17395,25 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>391724</v>
+        <v>393524</v>
       </c>
       <c r="F70" s="3">
-        <v>127644</v>
+        <v>127608</v>
       </c>
       <c r="G70" s="3">
-        <v>56248</v>
+        <v>56212</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I70" s="3">
-        <v>95.1</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>25.1</v>
       </c>
       <c r="K70" s="6">
-        <v>0.000276736111111111</v>
+        <v>0.000332060185185185</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -17115,13 +17442,13 @@
         <v>38</v>
       </c>
       <c r="I71" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J71" s="3">
         <v>25.1</v>
       </c>
       <c r="K71" s="6">
-        <v>0.000283564814814815</v>
+        <v>0.000345949074074074</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -17156,7 +17483,7 @@
         <v>25.1</v>
       </c>
       <c r="K72" s="6">
-        <v>0.000290509259259259</v>
+        <v>0.000352893518518518</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -17191,7 +17518,7 @@
         <v>25.1</v>
       </c>
       <c r="K73" s="6">
-        <v>0.000297337962962963</v>
+        <v>0.000359722222222222</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -17220,13 +17547,13 @@
         <v>38</v>
       </c>
       <c r="I74" s="3">
-        <v>100</v>
+        <v>96.7</v>
       </c>
       <c r="J74" s="3">
         <v>25.1</v>
       </c>
       <c r="K74" s="6">
-        <v>0.000304398148148148</v>
+        <v>0.000373726851851852</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -17261,7 +17588,7 @@
         <v>25.1</v>
       </c>
       <c r="K75" s="6">
-        <v>0.000325115740740741</v>
+        <v>0.000380671296296296</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -17296,7 +17623,7 @@
         <v>25.1</v>
       </c>
       <c r="K76" s="6">
-        <v>0.000332060185185185</v>
+        <v>0.000387615740740741</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -17331,7 +17658,7 @@
         <v>25.1</v>
       </c>
       <c r="K77" s="6">
-        <v>0.000345949074074074</v>
+        <v>0.00040150462962963</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -17366,7 +17693,7 @@
         <v>25.1</v>
       </c>
       <c r="K78" s="6">
-        <v>0.000352893518518518</v>
+        <v>0.000408449074074074</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -17395,13 +17722,13 @@
         <v>38</v>
       </c>
       <c r="I79" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J79" s="3">
         <v>25.1</v>
       </c>
       <c r="K79" s="6">
-        <v>0.000359722222222222</v>
+        <v>0.000422222222222222</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -17430,13 +17757,13 @@
         <v>38</v>
       </c>
       <c r="I80" s="3">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="J80" s="3">
         <v>25.1</v>
       </c>
       <c r="K80" s="6">
-        <v>0.000373726851851852</v>
+        <v>0.000429050925925926</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -17462,126 +17789,61 @@
         <v>56212</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>25.1</v>
       </c>
       <c r="K81" s="6">
-        <v>0.000380671296296296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="3">
-        <v>3941</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="3">
-        <v>20</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3">
-        <v>393524</v>
-      </c>
-      <c r="F82" s="3">
-        <v>127608</v>
-      </c>
-      <c r="G82" s="3">
-        <v>56212</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="3">
-        <v>100</v>
-      </c>
-      <c r="J82" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K82" s="6">
-        <v>0.000387615740740741</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="3">
-        <v>3941</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="3">
-        <v>20</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>393524</v>
-      </c>
-      <c r="F83" s="3">
-        <v>127608</v>
-      </c>
-      <c r="G83" s="3">
-        <v>56212</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K83" s="6">
-        <v>0.00040150462962963</v>
+        <v>0.000430555555555556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="3">
-        <v>3941</v>
+      <c r="A84" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="3">
-        <v>20</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <v>393524</v>
-      </c>
-      <c r="F84" s="3">
-        <v>127608</v>
-      </c>
-      <c r="G84" s="3">
-        <v>56212</v>
+        <v>27</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="3">
-        <v>100</v>
-      </c>
-      <c r="J84" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0.000408449074074074</v>
+        <v>7</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3">
-        <v>3941</v>
+        <v>4262</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>36</v>
@@ -17593,30 +17855,30 @@
         <v>0</v>
       </c>
       <c r="E85" s="3">
-        <v>393524</v>
+        <v>389400</v>
       </c>
       <c r="F85" s="3">
-        <v>127608</v>
+        <v>127112</v>
       </c>
       <c r="G85" s="3">
-        <v>56212</v>
+        <v>54968</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I85" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="K85" s="6">
-        <v>0.000422222222222222</v>
+        <v>0.00178726851851852</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3">
-        <v>3941</v>
+        <v>4262</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>36</v>
@@ -17628,30 +17890,30 @@
         <v>0</v>
       </c>
       <c r="E86" s="3">
-        <v>393524</v>
+        <v>389400</v>
       </c>
       <c r="F86" s="3">
-        <v>127608</v>
+        <v>127112</v>
       </c>
       <c r="G86" s="3">
-        <v>56212</v>
+        <v>54968</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I86" s="3">
-        <v>98.3</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="K86" s="6">
-        <v>0.000429050925925926</v>
+        <v>0.00178726851851852</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3">
-        <v>3941</v>
+        <v>4262</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>36</v>
@@ -17663,30 +17925,30 @@
         <v>0</v>
       </c>
       <c r="E87" s="3">
-        <v>393524</v>
+        <v>394800</v>
       </c>
       <c r="F87" s="3">
-        <v>127608</v>
+        <v>128520</v>
       </c>
       <c r="G87" s="3">
-        <v>56212</v>
+        <v>56284</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I87" s="3">
-        <v>0</v>
+        <v>98.4</v>
       </c>
       <c r="J87" s="3">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="K87" s="6">
-        <v>0.000430555555555556</v>
+        <v>0.00179606481481481</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3">
-        <v>3941</v>
+        <v>4262</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>36</v>
@@ -17698,60 +17960,130 @@
         <v>0</v>
       </c>
       <c r="E88" s="3">
-        <v>393524</v>
+        <v>394800</v>
       </c>
       <c r="F88" s="3">
-        <v>127608</v>
+        <v>128520</v>
       </c>
       <c r="G88" s="3">
-        <v>56212</v>
+        <v>56284</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I88" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J88" s="3">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="K88" s="6">
-        <v>0.000430555555555556</v>
+        <v>0.00180300925925926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="3">
+        <v>4262</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="3">
+        <v>20</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>394800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>128520</v>
+      </c>
+      <c r="G89" s="3">
+        <v>56284</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="J89" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0.00180983796296296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="3">
+        <v>4262</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="3">
+        <v>20</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>394800</v>
+      </c>
+      <c r="F90" s="3">
+        <v>128520</v>
+      </c>
+      <c r="G90" s="3">
+        <v>56284</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="3">
+        <v>100</v>
+      </c>
+      <c r="J90" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.00181678240740741</v>
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="2" t="s">
-        <v>0</v>
+      <c r="A91" s="3">
+        <v>4262</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C91" s="3">
+        <v>20</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>394800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>128520</v>
+      </c>
+      <c r="G91" s="3">
+        <v>56284</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="I91" s="3">
+        <v>100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0.00182372685185185</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -17768,25 +18100,25 @@
         <v>0</v>
       </c>
       <c r="E92" s="3">
-        <v>389400</v>
+        <v>394800</v>
       </c>
       <c r="F92" s="3">
-        <v>127112</v>
+        <v>128520</v>
       </c>
       <c r="G92" s="3">
-        <v>54968</v>
+        <v>56284</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I92" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J92" s="3">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="K92" s="6">
-        <v>0.00178726851851852</v>
+        <v>0.00183078703703704</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -17803,25 +18135,25 @@
         <v>0</v>
       </c>
       <c r="E93" s="3">
-        <v>389400</v>
+        <v>394800</v>
       </c>
       <c r="F93" s="3">
-        <v>127112</v>
+        <v>128520</v>
       </c>
       <c r="G93" s="3">
-        <v>54968</v>
+        <v>56284</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I93" s="3">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="J93" s="3">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="K93" s="6">
-        <v>0.00178726851851852</v>
+        <v>0.00183761574074074</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -17850,13 +18182,13 @@
         <v>38</v>
       </c>
       <c r="I94" s="3">
-        <v>98.4</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
         <v>25.3</v>
       </c>
       <c r="K94" s="6">
-        <v>0.00179606481481481</v>
+        <v>0.00184456018518519</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -17891,7 +18223,7 @@
         <v>25.3</v>
       </c>
       <c r="K95" s="6">
-        <v>0.00180300925925926</v>
+        <v>0.00185150462962963</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -17920,13 +18252,13 @@
         <v>38</v>
       </c>
       <c r="I96" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J96" s="3">
         <v>25.3</v>
       </c>
       <c r="K96" s="6">
-        <v>0.00180983796296296</v>
+        <v>0.001865625</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -17961,7 +18293,7 @@
         <v>25.3</v>
       </c>
       <c r="K97" s="6">
-        <v>0.00181678240740741</v>
+        <v>0.00187256944444444</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -17990,13 +18322,13 @@
         <v>38</v>
       </c>
       <c r="I98" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J98" s="3">
         <v>25.3</v>
       </c>
       <c r="K98" s="6">
-        <v>0.00182372685185185</v>
+        <v>0.00187939814814815</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -18031,7 +18363,7 @@
         <v>25.3</v>
       </c>
       <c r="K99" s="6">
-        <v>0.00183078703703704</v>
+        <v>0.00188634259259259</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -18060,13 +18392,13 @@
         <v>38</v>
       </c>
       <c r="I100" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>25.3</v>
       </c>
       <c r="K100" s="6">
-        <v>0.00183761574074074</v>
+        <v>0.00189340277777778</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -18095,13 +18427,13 @@
         <v>38</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="J101" s="3">
         <v>25.3</v>
       </c>
       <c r="K101" s="6">
-        <v>0.00184456018518519</v>
+        <v>0.00190023148148148</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -18136,7 +18468,7 @@
         <v>25.3</v>
       </c>
       <c r="K102" s="6">
-        <v>0.00185150462962963</v>
+        <v>0.00190717592592593</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -18171,7 +18503,7 @@
         <v>25.3</v>
       </c>
       <c r="K103" s="6">
-        <v>0.001865625</v>
+        <v>0.001928125</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -18206,7 +18538,7 @@
         <v>25.3</v>
       </c>
       <c r="K104" s="6">
-        <v>0.00187256944444444</v>
+        <v>0.00193506944444444</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -18235,13 +18567,13 @@
         <v>38</v>
       </c>
       <c r="I105" s="3">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="J105" s="3">
         <v>25.3</v>
       </c>
       <c r="K105" s="6">
-        <v>0.00187939814814815</v>
+        <v>0.00194201388888889</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -18267,16 +18599,16 @@
         <v>56284</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I106" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J106" s="3">
         <v>25.3</v>
       </c>
       <c r="K106" s="6">
-        <v>0.00188634259259259</v>
+        <v>0.00194756944444444</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -18302,260 +18634,15 @@
         <v>56284</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I107" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3">
         <v>25.3</v>
       </c>
       <c r="K107" s="6">
-        <v>0.00189340277777778</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" s="3">
-        <v>20</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F108" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G108" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I108" s="3">
-        <v>98.3</v>
-      </c>
-      <c r="J108" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K108" s="6">
-        <v>0.00190023148148148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="3">
-        <v>20</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F109" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G109" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I109" s="3">
-        <v>100</v>
-      </c>
-      <c r="J109" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K109" s="6">
-        <v>0.00190717592592593</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C110" s="3">
-        <v>20</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F110" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G110" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I110" s="3">
-        <v>100</v>
-      </c>
-      <c r="J110" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K110" s="6">
-        <v>0.001928125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C111" s="3">
-        <v>20</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F111" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G111" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I111" s="3">
-        <v>100</v>
-      </c>
-      <c r="J111" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K111" s="6">
-        <v>0.00193506944444444</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C112" s="3">
-        <v>20</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F112" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G112" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I112" s="3">
-        <v>100</v>
-      </c>
-      <c r="J112" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K112" s="6">
-        <v>0.00194201388888889</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" s="3">
-        <v>20</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F113" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G113" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I113" s="3">
-        <v>0</v>
-      </c>
-      <c r="J113" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K113" s="6">
-        <v>0.00194756944444444</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="3">
-        <v>4262</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="3">
-        <v>20</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
-        <v>394800</v>
-      </c>
-      <c r="F114" s="3">
-        <v>128520</v>
-      </c>
-      <c r="G114" s="3">
-        <v>56284</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="K114" s="6">
         <v>0.00194756944444444</v>
       </c>
     </row>
@@ -18570,8 +18657,8 @@
   <sheetPr/>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18588,7 +18675,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -18626,10 +18713,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -18671,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O3" s="5"/>
     </row>
@@ -18713,7 +18800,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O4" s="5"/>
     </row>
@@ -18755,7 +18842,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O5" s="5"/>
     </row>
@@ -19124,10 +19211,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>30</v>
@@ -19470,7 +19557,7 @@
         <v>0.000979976851851852</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" ref="N23:R23" si="5">AVERAGE(N18:N22)</f>
@@ -20055,7 +20142,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -20795,7 +20882,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -21535,7 +21622,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -22231,7 +22318,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -22269,10 +22356,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -22522,10 +22609,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>30</v>
@@ -22868,7 +22955,7 @@
         <v>0.0011912037037037</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" ref="N16:R16" si="5">AVERAGE(N11:N15)</f>
@@ -22893,7 +22980,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -23108,7 +23195,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -23813,7 +23900,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -24544,7 +24631,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -24582,10 +24669,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -24948,7 +25035,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -24996,7 +25083,7 @@
         <v>35</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>30</v>
@@ -25339,7 +25426,7 @@
         <v>0.000350694444444444</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" ref="N20:R20" si="2">AVERAGE(N15:N19)</f>
@@ -25517,7 +25604,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -25895,7 +25982,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
@@ -26273,7 +26360,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
@@ -26663,7 +26750,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -26701,10 +26788,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -27002,7 +27089,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -27015,7 +27102,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="7"/>
       <c r="M11" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>30</v>
@@ -27358,7 +27445,7 @@
         <v>0.00031712962962963</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" ref="N17:R17" si="2">AVERAGE(N12:N16)</f>
@@ -27453,7 +27540,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -27738,7 +27825,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -28023,7 +28110,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -28473,7 +28560,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -28511,10 +28598,10 @@
         <v>35</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -28794,10 +28881,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>30</v>
@@ -29140,7 +29227,7 @@
         <v>0.000449537037037037</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" ref="N17:R17" si="0">AVERAGE(N12:N16)</f>
@@ -29248,7 +29335,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -29508,7 +29595,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -29793,7 +29880,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11">

--- a/Performance result.xlsx
+++ b/Performance result.xlsx
@@ -46,7 +46,7 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>ARM Processor</t>
+    <t>ARM</t>
   </si>
   <si>
     <t>FPGA</t>
@@ -349,9 +349,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -377,25 +377,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,10 +393,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,15 +424,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,15 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,9 +468,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,34 +499,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -530,37 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,13 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,43 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,25 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,26 +1030,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1067,9 +1047,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,153 +1070,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="27" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,10 +1880,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>RES</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US"/>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2294,10 +2294,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>SHR</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US"/>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6736,8 +6736,8 @@
   <sheetPr/>
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Performance result.xlsx
+++ b/Performance result.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="105">
   <si>
     <t>Filter</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>FPGA</t>
+  </si>
+  <si>
+    <t>VIRT</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>MEM</t>
   </si>
   <si>
     <t>Prosesor ARM VIRT (KiB)</t>
@@ -106,31 +121,16 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>VIRT</t>
-  </si>
-  <si>
     <t>The total amount of virtual memory used by the task. It  includes  all  code, data  and shared libraries plus pages that have been swapped out and pages that have been mapped but not used</t>
-  </si>
-  <si>
-    <t>RES</t>
   </si>
   <si>
     <t>A subset of the virtual address space (VIRT) representing the non-swapped physical memory a task is currently using.  It is also the sum of  the  RSan,  RSfd and RSsh fields.</t>
   </si>
   <si>
-    <t>SHR</t>
-  </si>
-  <si>
     <t>A subset of resident memory (RES) that may be used by other processes.  It will include shared anonymous pages and shared file-backed pages.  It also  includes private pages mapped to files representing program images and shared libraries.</t>
   </si>
   <si>
-    <t>CPU</t>
-  </si>
-  <si>
     <t>The  task's  share  of  the  elapsed CPU time since the last screen update, expressed as a percentage of total CPU time.</t>
-  </si>
-  <si>
-    <t>MEM</t>
   </si>
   <si>
     <t>A task's currently resident share of available physical memory.</t>
@@ -362,11 +362,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -392,6 +393,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -407,11 +415,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,10 +430,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,8 +446,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,36 +500,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,14 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,13 +536,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -545,13 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,13 +594,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,25 +648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +678,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,61 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1041,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,7 +1059,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,15 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1108,152 +1109,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="27" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1397,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="44" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="44" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="44" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="44" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6395,7 +6414,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6838950" y="3683000"/>
-        <a:ext cx="6400800" cy="3657600"/>
+        <a:ext cx="6591300" cy="3657600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6760,10 +6779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6775,10 +6794,15 @@
     <col min="10" max="10" width="10.375" style="15"/>
     <col min="11" max="11" width="12.625" style="15"/>
     <col min="12" max="12" width="9" style="15"/>
+    <col min="16" max="16" width="11.5"/>
+    <col min="17" max="17" width="12.625"/>
+    <col min="20" max="21" width="11.5"/>
+    <col min="24" max="25" width="10.375"/>
+    <col min="29" max="29" width="12.625"/>
   </cols>
   <sheetData>
     <row r="2" ht="15"/>
-    <row r="3" ht="21" customHeight="true" spans="2:12">
+    <row r="3" ht="21" customHeight="true" spans="2:31">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -6796,43 +6820,103 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="43"/>
-    </row>
-    <row r="4" s="14" customFormat="true" ht="15" spans="2:12">
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="14" customFormat="true" ht="15" spans="2:33">
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+        <v>17</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33">
       <c r="B5" s="22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="23">
         <f ca="1">INDIRECT("'ARM-Average blur'!"&amp;CELL("address",N17))</f>
@@ -6874,10 +6958,55 @@
         <f ca="1">INDIRECT("'FPGA-Average blur'!"&amp;CELL("address",R20))</f>
         <v>24.8</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="O5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="27">
+        <v>396474.642857143</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>395396</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="27">
+        <v>129794.8</v>
+      </c>
+      <c r="U5" s="49">
+        <v>126097.6</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="27">
+        <v>56157.4</v>
+      </c>
+      <c r="Y5" s="49">
+        <v>53840</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>99.8304285714286</v>
+      </c>
+      <c r="AC5" s="49">
+        <v>83.8593333333333</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="51">
+        <v>25.5</v>
+      </c>
+      <c r="AG5" s="52">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
       <c r="B6" s="25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="26">
         <f ca="1" t="shared" ref="C6:H6" si="0">INDIRECT("'ARM-Gaussian Blur'!"&amp;CELL("address",N17))</f>
@@ -6919,10 +7048,55 @@
         <f ca="1">INDIRECT("'FPGA-Gaussian Blur'!"&amp;CELL("address",R17))</f>
         <v>24.98</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="O6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="27">
+        <v>398862.8</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>395488.8</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="27">
+        <v>131804.4</v>
+      </c>
+      <c r="U6" s="50">
+        <v>127135.2</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="27">
+        <v>56503.6</v>
+      </c>
+      <c r="Y6" s="50">
+        <v>54504.8</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>99.5963596491228</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>83.701</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="51">
+        <v>25.88</v>
+      </c>
+      <c r="AG6" s="53">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33">
       <c r="B7" s="25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="26">
         <f ca="1">INDIRECT("'ARM-Laplacian'!"&amp;CELL("address",N23))</f>
@@ -6964,10 +7138,55 @@
         <f ca="1">INDIRECT("'FPGA-Laplacian'!"&amp;CELL("address",R17))</f>
         <v>24.58</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="O7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="27">
+        <v>393388</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>395638.4</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="27">
+        <v>127493.6</v>
+      </c>
+      <c r="U7" s="50">
+        <v>125005.6</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="27">
+        <v>56248</v>
+      </c>
+      <c r="Y7" s="50">
+        <v>52568</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>99.5292857142857</v>
+      </c>
+      <c r="AC7" s="50">
+        <v>84.024</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="51">
+        <v>25.06</v>
+      </c>
+      <c r="AG7" s="53">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
       <c r="B8" s="25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" s="26">
         <f ca="1">INDIRECT("'ARM-Sharpen'!"&amp;CELL("address",N22))</f>
@@ -7009,10 +7228,55 @@
         <f ca="1">INDIRECT("'FPGA-Sharpen'!"&amp;CELL("address",R21))</f>
         <v>25.14</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="O8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="27">
+        <v>395126.773529412</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>395575.2</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="27">
+        <v>129117.223529412</v>
+      </c>
+      <c r="U8" s="50">
+        <v>127931.2</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="27">
+        <v>56298.8235294118</v>
+      </c>
+      <c r="Y8" s="50">
+        <v>55528.8</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>99.4730250257998</v>
+      </c>
+      <c r="AC8" s="50">
+        <v>84.9063333333333</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF8" s="51">
+        <v>25.4</v>
+      </c>
+      <c r="AG8" s="53">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33">
       <c r="B9" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="26">
         <f ca="1">INDIRECT("'ARM-Sobel Horizontal'!"&amp;CELL("address",N23))</f>
@@ -7054,10 +7318,55 @@
         <f ca="1">INDIRECT("'FPGA-Sobel Horizontal'!"&amp;CELL("address",R19))</f>
         <v>24.68</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="2:12">
+      <c r="O9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="27">
+        <v>393544.8</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>395524</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="27">
+        <v>127830.4</v>
+      </c>
+      <c r="U9" s="50">
+        <v>125420</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="27">
+        <v>56349.6</v>
+      </c>
+      <c r="Y9" s="50">
+        <v>53015.2</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>99.4749894957983</v>
+      </c>
+      <c r="AC9" s="50">
+        <v>86.219</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="51">
+        <v>25.12</v>
+      </c>
+      <c r="AG9" s="53">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="2:33">
       <c r="B10" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="29">
         <f ca="1">INDIRECT("'ARM-Sobel Vertical'!"&amp;CELL("address",N16))</f>
@@ -7099,10 +7408,55 @@
         <f ca="1">INDIRECT("'FPGA-Sobel Vertical'!"&amp;CELL("address",R17))</f>
         <v>24.98</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="2:12">
+      <c r="O10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="27">
+        <v>395048.8</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>395385.6</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="27">
+        <v>128611.2</v>
+      </c>
+      <c r="U10" s="50">
+        <v>127033.6</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="27">
+        <v>56396</v>
+      </c>
+      <c r="Y10" s="50">
+        <v>54728</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>99.57</v>
+      </c>
+      <c r="AC10" s="50">
+        <v>85.799</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF10" s="51">
+        <v>25.28</v>
+      </c>
+      <c r="AG10" s="53">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="2:33">
       <c r="B11" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="32">
         <f ca="1">AVERAGE(C$5:C$10)</f>
@@ -7144,21 +7498,66 @@
         <f ca="1" t="shared" si="1"/>
         <v>24.86</v>
       </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="27">
+        <v>395407.636064426</v>
+      </c>
+      <c r="Q11" s="50">
+        <v>395501.333333333</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="27">
+        <v>129108.603921569</v>
+      </c>
+      <c r="U11" s="50">
+        <v>126437.2</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="27">
+        <v>56325.5705882353</v>
+      </c>
+      <c r="Y11" s="50">
+        <v>54030.8</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="27">
+        <v>99.5790147427392</v>
+      </c>
+      <c r="AC11" s="50">
+        <v>84.7514444444444</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF11" s="51">
+        <v>25.3733333333333</v>
+      </c>
+      <c r="AG11" s="53">
+        <v>24.86</v>
+      </c>
     </row>
     <row r="12" spans="7:7">
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="34" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" s="14" customFormat="true" spans="2:12">
       <c r="B14" s="35" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -7171,10 +7570,10 @@
     </row>
     <row r="15" s="14" customFormat="true" spans="2:12">
       <c r="B15" s="35" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
@@ -7187,10 +7586,10 @@
     </row>
     <row r="16" s="14" customFormat="true" spans="2:12">
       <c r="B16" s="35" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -7203,10 +7602,10 @@
     </row>
     <row r="17" s="14" customFormat="true" spans="2:12">
       <c r="B17" s="35" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -7219,7 +7618,7 @@
     </row>
     <row r="18" s="14" customFormat="true" spans="2:12">
       <c r="B18" s="35" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>30</v>
@@ -7281,13 +7680,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -7591,13 +7990,13 @@
         <v>43</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>61</v>
@@ -7620,13 +8019,13 @@
         <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>39</v>
@@ -7931,7 +8330,7 @@
         <v>0.000449537037037037</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" ref="N17:R17" si="0">AVERAGE(N12:N16)</f>
@@ -8066,13 +8465,13 @@
         <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>39</v>
@@ -8316,13 +8715,13 @@
         <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>39</v>
@@ -8601,13 +9000,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>39</v>
@@ -8877,13 +9276,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -9355,13 +9754,13 @@
         <v>43</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>61</v>
@@ -9384,13 +9783,13 @@
         <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>39</v>
@@ -9695,7 +10094,7 @@
         <v>0.000377430555555556</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N21" s="11">
         <f>AVERAGE(N16:N20)</f>
@@ -9842,13 +10241,13 @@
         <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>39</v>
@@ -10092,13 +10491,13 @@
         <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>39</v>
@@ -10377,13 +10776,13 @@
         <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>39</v>
@@ -10686,13 +11085,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -11066,13 +11465,13 @@
         <v>43</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>61</v>
@@ -11095,13 +11494,13 @@
         <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>39</v>
@@ -11406,7 +11805,7 @@
         <v>0.000383449074074074</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" ref="N19:R19" si="2">AVERAGE(N14:N18)</f>
@@ -11553,13 +11952,13 @@
         <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>39</v>
@@ -11838,13 +12237,13 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>39</v>
@@ -12123,13 +12522,13 @@
         <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>39</v>
@@ -12447,13 +12846,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -12757,13 +13156,13 @@
         <v>43</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>61</v>
@@ -12786,13 +13185,13 @@
         <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>39</v>
@@ -13097,7 +13496,7 @@
         <v>0.000336574074074074</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" ref="N17:R17" si="1">AVERAGE(N12:N16)</f>
@@ -13174,13 +13573,13 @@
         <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>39</v>
@@ -13494,13 +13893,13 @@
         <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>39</v>
@@ -13744,13 +14143,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>39</v>
@@ -14426,13 +14825,13 @@
         <v>43</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>61</v>
@@ -14455,13 +14854,13 @@
         <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>39</v>
@@ -14766,7 +15165,7 @@
         <v>0.00192233796296296</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" ref="N17:R17" si="2">AVERAGE(N12:N16)</f>
@@ -14983,13 +15382,13 @@
         <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>39</v>
@@ -15408,13 +15807,13 @@
         <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>39</v>
@@ -15658,13 +16057,13 @@
         <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>39</v>
@@ -16355,13 +16754,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -16730,13 +17129,13 @@
         <v>43</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>61</v>
@@ -16812,13 +17211,13 @@
         <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>39</v>
@@ -17007,7 +17406,7 @@
         <v>0.00303344907407407</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" s="11">
         <f>AVERAGE(N12:N16)</f>
@@ -17119,13 +17518,13 @@
         <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>39</v>
@@ -17369,13 +17768,13 @@
         <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>39</v>
@@ -18202,13 +18601,13 @@
         <v>65</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>39</v>
@@ -19074,13 +19473,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -19659,13 +20058,13 @@
         <v>43</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>61</v>
@@ -19799,13 +20198,13 @@
         <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>39</v>
@@ -19936,7 +20335,7 @@
         <v>0.000981597222222222</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N23" s="11">
         <f t="shared" ref="N23:R23" si="5">AVERAGE(N18:N22)</f>
@@ -20643,13 +21042,13 @@
         <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>39</v>
@@ -21418,13 +21817,13 @@
         <v>65</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>39</v>
@@ -22158,13 +22557,13 @@
         <v>65</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>39</v>
@@ -22962,13 +23361,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -23452,13 +23851,13 @@
         <v>43</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>61</v>
@@ -23481,13 +23880,13 @@
         <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>39</v>
@@ -23792,7 +24191,7 @@
         <v>0.000510300925925926</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N22" s="11">
         <f t="shared" ref="N22:R22" si="5">AVERAGE(N17:N21)</f>
@@ -24324,13 +24723,13 @@
         <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>39</v>
@@ -25029,13 +25428,13 @@
         <v>65</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>39</v>
@@ -25769,13 +26168,13 @@
         <v>65</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>39</v>
@@ -26641,13 +27040,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -27166,13 +27565,13 @@
         <v>43</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>61</v>
@@ -27195,13 +27594,13 @@
         <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>39</v>
@@ -27506,7 +27905,7 @@
         <v>0.000979976851851852</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N23" s="11">
         <f t="shared" ref="N23:R23" si="5">AVERAGE(N18:N22)</f>
@@ -28108,13 +28507,13 @@
         <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>39</v>
@@ -28848,13 +29247,13 @@
         <v>65</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>39</v>
@@ -29588,13 +29987,13 @@
         <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>39</v>
@@ -30284,13 +30683,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -30564,13 +30963,13 @@
         <v>43</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>61</v>
@@ -30593,13 +30992,13 @@
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>39</v>
@@ -30904,7 +31303,7 @@
         <v>0.0011912037037037</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" ref="N16:R16" si="5">AVERAGE(N11:N15)</f>
@@ -30946,13 +31345,13 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>39</v>
@@ -31161,13 +31560,13 @@
         <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>39</v>
@@ -31866,13 +32265,13 @@
         <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>39</v>
@@ -32597,13 +32996,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -33011,13 +33410,13 @@
         <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>39</v>
@@ -33035,13 +33434,13 @@
         <v>43</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>61</v>
@@ -33375,7 +33774,7 @@
         <v>0.000350694444444444</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" ref="N20:R20" si="2">AVERAGE(N15:N19)</f>
@@ -33580,13 +33979,13 @@
         <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>39</v>
@@ -33958,13 +34357,13 @@
         <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>39</v>
@@ -34336,13 +34735,13 @@
         <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>39</v>
@@ -34716,13 +35115,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -35054,13 +35453,13 @@
         <v>43</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>61</v>
@@ -35083,13 +35482,13 @@
         <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>39</v>
@@ -35394,7 +35793,7 @@
         <v>0.00031712962962963</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" ref="N17:R17" si="2">AVERAGE(N12:N16)</f>
@@ -35506,13 +35905,13 @@
         <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>39</v>
@@ -35791,13 +36190,13 @@
         <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>39</v>
@@ -36076,13 +36475,13 @@
         <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>39</v>
